--- a/slimefun-mappings.xlsx
+++ b/slimefun-mappings.xlsx
@@ -3593,7 +3593,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3603,13 +3603,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4069,10 +4062,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4081,31 +4074,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4117,97 +4113,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4224,10 +4217,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4551,13 +4544,13 @@
   <sheetPr/>
   <dimension ref="A1:E548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="32.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="43.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.3333333333333" customWidth="1"/>
@@ -4595,7 +4588,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>"register(event,"&amp;A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;");"</f>
+        <f t="shared" ref="E2:E65" si="0">"register(event,"&amp;A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;");"</f>
         <v>register(event,"player_head","BASE",1111,16);</v>
       </c>
     </row>
@@ -4613,7 +4606,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>"register(event,"&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"gray_stained_glass_pane","ui_background_2",1111111,16);</v>
       </c>
     </row>
@@ -4631,7 +4624,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>"register(event,"&amp;A4&amp;","&amp;B4&amp;","&amp;C4&amp;","&amp;D4&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"enchanted_book","slimefun_guide",2200001,16);</v>
       </c>
     </row>
@@ -4649,7 +4642,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>"register(event,"&amp;A5&amp;","&amp;B5&amp;","&amp;C5&amp;","&amp;D5&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"golden_sword","slimefun_guide_icon",2200001,16);</v>
       </c>
     </row>
@@ -4667,7 +4660,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>"register(event,"&amp;A6&amp;","&amp;B6&amp;","&amp;C6&amp;","&amp;D6&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"gray_stained_glass_pane","background",2200002,16);</v>
       </c>
     </row>
@@ -4685,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>"register(event,"&amp;A7&amp;","&amp;B7&amp;","&amp;C7&amp;","&amp;D7&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"enchanted_book","back",2200003,16);</v>
       </c>
     </row>
@@ -4703,7 +4696,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f>"register(event,"&amp;A8&amp;","&amp;B8&amp;","&amp;C8&amp;","&amp;D8&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"comparator","menu",2200004,16);</v>
       </c>
     </row>
@@ -4721,7 +4714,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>"register(event,"&amp;A9&amp;","&amp;B9&amp;","&amp;C9&amp;","&amp;D9&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"name_tag","search",2200005,16);</v>
       </c>
     </row>
@@ -4739,7 +4732,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>"register(event,"&amp;A10&amp;","&amp;B10&amp;","&amp;C10&amp;","&amp;D10&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"player_head","wiki",2200006,16);</v>
       </c>
     </row>
@@ -4757,7 +4750,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>"register(event,"&amp;A11&amp;","&amp;B11&amp;","&amp;C11&amp;","&amp;D11&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"lime_stained_glass_pane","previous_on",2200007,16);</v>
       </c>
     </row>
@@ -4775,7 +4768,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>"register(event,"&amp;A12&amp;","&amp;B12&amp;","&amp;C12&amp;","&amp;D12&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"black_stained_glass_pane","previous_off",2200008,16);</v>
       </c>
     </row>
@@ -4793,7 +4786,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>"register(event,"&amp;A13&amp;","&amp;B13&amp;","&amp;C13&amp;","&amp;D13&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"lime_stained_glass_pane","next_on",2200009,16);</v>
       </c>
     </row>
@@ -4811,7 +4804,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>"register(event,"&amp;A14&amp;","&amp;B14&amp;","&amp;C14&amp;","&amp;D14&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"black_stained_glass_pane","next_off",2200010,16);</v>
       </c>
     </row>
@@ -4829,7 +4822,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>"register(event,"&amp;A15&amp;","&amp;B15&amp;","&amp;C15&amp;","&amp;D15&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"stick","grandmas_walking_stick",2200011,16);</v>
       </c>
     </row>
@@ -4847,7 +4840,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>"register(event,"&amp;A16&amp;","&amp;B16&amp;","&amp;C16&amp;","&amp;D16&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"stick","grandpas_walking_stick",2200012,16);</v>
       </c>
     </row>
@@ -4865,7 +4858,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>"register(event,"&amp;A17&amp;","&amp;B17&amp;","&amp;C17&amp;","&amp;D17&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"player_head","portable_crafter",2200013,16);</v>
       </c>
     </row>
@@ -4883,7 +4876,7 @@
         <v>49</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f>"register(event,"&amp;A18&amp;","&amp;B18&amp;","&amp;C18&amp;","&amp;D18&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"cookie","fortune_cookie",2200014,32);</v>
       </c>
     </row>
@@ -4901,7 +4894,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f>"register(event,"&amp;A19&amp;","&amp;B19&amp;","&amp;C19&amp;","&amp;D19&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"cookie","diet_cookie",2200015,32);</v>
       </c>
     </row>
@@ -4919,7 +4912,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f>"register(event,"&amp;A20&amp;","&amp;B20&amp;","&amp;C20&amp;","&amp;D20&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"chest","output_chest",2200016,32);</v>
       </c>
     </row>
@@ -4937,7 +4930,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f>"register(event,"&amp;A21&amp;","&amp;B21&amp;","&amp;C21&amp;","&amp;D21&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"crafting_table","enhanced_crafting_table",2200017,32);</v>
       </c>
     </row>
@@ -4955,7 +4948,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f>"register(event,"&amp;A22&amp;","&amp;B22&amp;","&amp;C22&amp;","&amp;D22&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"player_head","portable_dustbin",2200018,16);</v>
       </c>
     </row>
@@ -4973,7 +4966,7 @@
         <v>49</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f>"register(event,"&amp;A23&amp;","&amp;B23&amp;","&amp;C23&amp;","&amp;D23&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"cooked_beef","beef_jerky",2200019,32);</v>
       </c>
     </row>
@@ -4991,7 +4984,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f>"register(event,"&amp;A24&amp;","&amp;B24&amp;","&amp;C24&amp;","&amp;D24&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"cooked_porkchop","pork_jerky",2200020,32);</v>
       </c>
     </row>
@@ -5009,7 +5002,7 @@
         <v>49</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f>"register(event,"&amp;A25&amp;","&amp;B25&amp;","&amp;C25&amp;","&amp;D25&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"cooked_chicken","chicken_jerky",2200021,32);</v>
       </c>
     </row>
@@ -5027,7 +5020,7 @@
         <v>49</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f>"register(event,"&amp;A26&amp;","&amp;B26&amp;","&amp;C26&amp;","&amp;D26&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"cooked_mutton","mutton_jerky",2200022,32);</v>
       </c>
     </row>
@@ -5045,7 +5038,7 @@
         <v>49</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f>"register(event,"&amp;A27&amp;","&amp;B27&amp;","&amp;C27&amp;","&amp;D27&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"cooked_rabbit","rabbit_jerky",2200023,32);</v>
       </c>
     </row>
@@ -5063,7 +5056,7 @@
         <v>49</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f>"register(event,"&amp;A28&amp;","&amp;B28&amp;","&amp;C28&amp;","&amp;D28&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"cooked_cod","fish_jerky",2200024,32);</v>
       </c>
     </row>
@@ -5081,7 +5074,7 @@
         <v>49</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f>"register(event,"&amp;A29&amp;","&amp;B29&amp;","&amp;C29&amp;","&amp;D29&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"cookie","kelp_cookie",2200025,32);</v>
       </c>
     </row>
@@ -5099,7 +5092,7 @@
         <v>49</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f>"register(event,"&amp;A30&amp;","&amp;B30&amp;","&amp;C30&amp;","&amp;D30&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"dispenser","grind_stone",2200026,32);</v>
       </c>
     </row>
@@ -5117,7 +5110,7 @@
         <v>49</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f>"register(event,"&amp;A31&amp;","&amp;B31&amp;","&amp;C31&amp;","&amp;D31&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"anvil","armor_forge",2200027,32);</v>
       </c>
     </row>
@@ -5135,7 +5128,7 @@
         <v>49</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f>"register(event,"&amp;A32&amp;","&amp;B32&amp;","&amp;C32&amp;","&amp;D32&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"dispenser","ore_crusher",2200028,32);</v>
       </c>
     </row>
@@ -5153,7 +5146,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f>"register(event,"&amp;A33&amp;","&amp;B33&amp;","&amp;C33&amp;","&amp;D33&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"piston","compressor",2200029,32);</v>
       </c>
     </row>
@@ -5171,7 +5164,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f>"register(event,"&amp;A34&amp;","&amp;B34&amp;","&amp;C34&amp;","&amp;D34&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"gold_nugget","magical_lump_1",2200030,16);</v>
       </c>
     </row>
@@ -5189,7 +5182,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f>"register(event,"&amp;A35&amp;","&amp;B35&amp;","&amp;C35&amp;","&amp;D35&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"gold_nugget","magical_lump_2",2200031,16);</v>
       </c>
     </row>
@@ -5207,7 +5200,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f>"register(event,"&amp;A36&amp;","&amp;B36&amp;","&amp;C36&amp;","&amp;D36&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"gold_nugget","magical_lump_3",2200032,16);</v>
       </c>
     </row>
@@ -5225,7 +5218,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f>"register(event,"&amp;A37&amp;","&amp;B37&amp;","&amp;C37&amp;","&amp;D37&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"gold_nugget","ender_lump_1",2200033,16);</v>
       </c>
     </row>
@@ -5243,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f>"register(event,"&amp;A38&amp;","&amp;B38&amp;","&amp;C38&amp;","&amp;D38&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"gold_nugget","ender_lump_2",2200034,16);</v>
       </c>
     </row>
@@ -5261,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f>"register(event,"&amp;A39&amp;","&amp;B39&amp;","&amp;C39&amp;","&amp;D39&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"gold_nugget","ender_lump_3",2200035,16);</v>
       </c>
     </row>
@@ -5279,7 +5272,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f>"register(event,"&amp;A40&amp;","&amp;B40&amp;","&amp;C40&amp;","&amp;D40&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"player_head","ender_backpack",2200036,16);</v>
       </c>
     </row>
@@ -5297,7 +5290,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f>"register(event,"&amp;A41&amp;","&amp;B41&amp;","&amp;C41&amp;","&amp;D41&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"ender_eye","magic_eye_of_ender",2200041,16);</v>
       </c>
     </row>
@@ -5315,7 +5308,7 @@
         <v>49</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f>"register(event,"&amp;A42&amp;","&amp;B42&amp;","&amp;C42&amp;","&amp;D42&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"sugar","magic_sugar",2200042,32);</v>
       </c>
     </row>
@@ -5333,7 +5326,7 @@
         <v>49</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f>"register(event,"&amp;A43&amp;","&amp;B43&amp;","&amp;C43&amp;","&amp;D43&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"rotten_flesh","monster_jerky",2200043,32);</v>
       </c>
     </row>
@@ -5351,7 +5344,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f>"register(event,"&amp;A44&amp;","&amp;B44&amp;","&amp;C44&amp;","&amp;D44&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"paper","magical_book_cover",2200049,16);</v>
       </c>
     </row>
@@ -5369,7 +5362,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f>"register(event,"&amp;A45&amp;","&amp;B45&amp;","&amp;C45&amp;","&amp;D45&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"glass_pane","magical_glass",2200050,16);</v>
       </c>
     </row>
@@ -5387,7 +5380,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f>"register(event,"&amp;A46&amp;","&amp;B46&amp;","&amp;C46&amp;","&amp;D46&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"activator_rail","basic_circuit_board",2200051,16);</v>
       </c>
     </row>
@@ -5405,7 +5398,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f>"register(event,"&amp;A47&amp;","&amp;B47&amp;","&amp;C47&amp;","&amp;D47&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"powered_rail","advanced_circuit_board",2200052,16);</v>
       </c>
     </row>
@@ -5423,7 +5416,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f>"register(event,"&amp;A48&amp;","&amp;B48&amp;","&amp;C48&amp;","&amp;D48&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"bowl","gold_pan",2200053,16);</v>
       </c>
     </row>
@@ -5441,7 +5434,7 @@
         <v>8</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f>"register(event,"&amp;A49&amp;","&amp;B49&amp;","&amp;C49&amp;","&amp;D49&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"bowl","nether_gold_pan",2200054,16);</v>
       </c>
     </row>
@@ -5459,7 +5452,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f>"register(event,"&amp;A50&amp;","&amp;B50&amp;","&amp;C50&amp;","&amp;D50&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"gunpowder","shifted_ore",2200055,16);</v>
       </c>
     </row>
@@ -5477,7 +5470,7 @@
         <v>49</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f>"register(event,"&amp;A51&amp;","&amp;B51&amp;","&amp;C51&amp;","&amp;D51&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"blast_furnace","makeshift_smeltery",2200056,32);</v>
       </c>
     </row>
@@ -5495,7 +5488,7 @@
         <v>49</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f>"register(event,"&amp;A52&amp;","&amp;B52&amp;","&amp;C52&amp;","&amp;D52&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"furnace","smeltery",2200057,32);</v>
       </c>
     </row>
@@ -5513,7 +5506,7 @@
         <v>49</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f>"register(event,"&amp;A53&amp;","&amp;B53&amp;","&amp;C53&amp;","&amp;D53&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"dispenser","automatic_ignition_chamber",2200058,32);</v>
       </c>
     </row>
@@ -5531,7 +5524,7 @@
         <v>49</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f>"register(event,"&amp;A54&amp;","&amp;B54&amp;","&amp;C54&amp;","&amp;D54&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"glass","pressure_chamber",2200059,32);</v>
       </c>
     </row>
@@ -5549,7 +5542,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f>"register(event,"&amp;A55&amp;","&amp;B55&amp;","&amp;C55&amp;","&amp;D55&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"player_head","battery",2200060,16);</v>
       </c>
     </row>
@@ -5567,7 +5560,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f>"register(event,"&amp;A56&amp;","&amp;B56&amp;","&amp;C56&amp;","&amp;D56&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"iron_helmet","damascus_steel_helmet",2200065,16);</v>
       </c>
     </row>
@@ -5585,7 +5578,7 @@
         <v>8</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f>"register(event,"&amp;A57&amp;","&amp;B57&amp;","&amp;C57&amp;","&amp;D57&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"iron_chestplate","damascus_steel_chestplate",2200066,16);</v>
       </c>
     </row>
@@ -5603,7 +5596,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f>"register(event,"&amp;A58&amp;","&amp;B58&amp;","&amp;C58&amp;","&amp;D58&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"iron_leggings","damascus_steel_leggings",2200067,16);</v>
       </c>
     </row>
@@ -5621,7 +5614,7 @@
         <v>8</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f>"register(event,"&amp;A59&amp;","&amp;B59&amp;","&amp;C59&amp;","&amp;D59&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"iron_boots","damascus_steel_boots",2200068,16);</v>
       </c>
     </row>
@@ -5639,7 +5632,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f>"register(event,"&amp;A60&amp;","&amp;B60&amp;","&amp;C60&amp;","&amp;D60&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"iron_helmet","reinforced_helmet",2200069,16);</v>
       </c>
     </row>
@@ -5657,7 +5650,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f>"register(event,"&amp;A61&amp;","&amp;B61&amp;","&amp;C61&amp;","&amp;D61&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"iron_chestplate","reinforced_chestplate",2200070,16);</v>
       </c>
     </row>
@@ -5675,7 +5668,7 @@
         <v>8</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f>"register(event,"&amp;A62&amp;","&amp;B62&amp;","&amp;C62&amp;","&amp;D62&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"iron_leggings","reinforced_leggings",2200071,16);</v>
       </c>
     </row>
@@ -5693,7 +5686,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f>"register(event,"&amp;A63&amp;","&amp;B63&amp;","&amp;C63&amp;","&amp;D63&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"iron_boots","reinforced_boots",2200072,16);</v>
       </c>
     </row>
@@ -5711,7 +5704,7 @@
         <v>8</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f>"register(event,"&amp;A64&amp;","&amp;B64&amp;","&amp;C64&amp;","&amp;D64&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"leather_helmet","cactus_helmet",2200073,16);</v>
       </c>
     </row>
@@ -5729,7 +5722,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f>"register(event,"&amp;A65&amp;","&amp;B65&amp;","&amp;C65&amp;","&amp;D65&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>register(event,"leather_chestplate","cactus_chestplate",2200074,16);</v>
       </c>
     </row>
@@ -5747,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f>"register(event,"&amp;A66&amp;","&amp;B66&amp;","&amp;C66&amp;","&amp;D66&amp;");"</f>
+        <f t="shared" ref="E66:E129" si="1">"register(event,"&amp;A66&amp;","&amp;B66&amp;","&amp;C66&amp;","&amp;D66&amp;");"</f>
         <v>register(event,"leather_leggings","cactus_leggings",2200075,16);</v>
       </c>
     </row>
@@ -5765,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f>"register(event,"&amp;A67&amp;","&amp;B67&amp;","&amp;C67&amp;","&amp;D67&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"leather_boots","cactus_boots",2200076,16);</v>
       </c>
     </row>
@@ -5783,7 +5776,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f>"register(event,"&amp;A68&amp;","&amp;B68&amp;","&amp;C68&amp;","&amp;D68&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","reinforced_alloy_ingot",2200077,16);</v>
       </c>
     </row>
@@ -5801,7 +5794,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f>"register(event,"&amp;A69&amp;","&amp;B69&amp;","&amp;C69&amp;","&amp;D69&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","hardened_metal",2200078,16);</v>
       </c>
     </row>
@@ -5819,7 +5812,7 @@
         <v>8</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f>"register(event,"&amp;A70&amp;","&amp;B70&amp;","&amp;C70&amp;","&amp;D70&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","damascus_steel_ingot",2200079,16);</v>
       </c>
     </row>
@@ -5837,7 +5830,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f>"register(event,"&amp;A71&amp;","&amp;B71&amp;","&amp;C71&amp;","&amp;D71&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","steel_ingot",2200080,16);</v>
       </c>
     </row>
@@ -5855,7 +5848,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f>"register(event,"&amp;A72&amp;","&amp;B72&amp;","&amp;C72&amp;","&amp;D72&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"brick","bronze_ingot",2200081,16);</v>
       </c>
     </row>
@@ -5873,7 +5866,7 @@
         <v>8</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f>"register(event,"&amp;A73&amp;","&amp;B73&amp;","&amp;C73&amp;","&amp;D73&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","duralumin_ingot",2200082,16);</v>
       </c>
     </row>
@@ -5891,7 +5884,7 @@
         <v>8</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f>"register(event,"&amp;A74&amp;","&amp;B74&amp;","&amp;C74&amp;","&amp;D74&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","billon_ingot",2200083,16);</v>
       </c>
     </row>
@@ -5909,7 +5902,7 @@
         <v>49</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f>"register(event,"&amp;A75&amp;","&amp;B75&amp;","&amp;C75&amp;","&amp;D75&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","brass_ingot",2200084,32);</v>
       </c>
     </row>
@@ -5927,7 +5920,7 @@
         <v>8</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f>"register(event,"&amp;A76&amp;","&amp;B76&amp;","&amp;C76&amp;","&amp;D76&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","aluminum_brass_ingot",2200085,16);</v>
       </c>
     </row>
@@ -5945,7 +5938,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="4" t="str">
-        <f>"register(event,"&amp;A77&amp;","&amp;B77&amp;","&amp;C77&amp;","&amp;D77&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","aluminum_bronze_ingot",2200086,16);</v>
       </c>
     </row>
@@ -5963,7 +5956,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="4" t="str">
-        <f>"register(event,"&amp;A78&amp;","&amp;B78&amp;","&amp;C78&amp;","&amp;D78&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","corinthian_bronze_ingot",2200087,16);</v>
       </c>
     </row>
@@ -5981,7 +5974,7 @@
         <v>8</v>
       </c>
       <c r="E79" s="4" t="str">
-        <f>"register(event,"&amp;A79&amp;","&amp;B79&amp;","&amp;C79&amp;","&amp;D79&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","solder_ingot",2200088,16);</v>
       </c>
     </row>
@@ -5999,7 +5992,7 @@
         <v>49</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f>"register(event,"&amp;A80&amp;","&amp;B80&amp;","&amp;C80&amp;","&amp;D80&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"player_head","synthetic_sapphire",2200089,32);</v>
       </c>
     </row>
@@ -6017,7 +6010,7 @@
         <v>49</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f>"register(event,"&amp;A81&amp;","&amp;B81&amp;","&amp;C81&amp;","&amp;D81&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"diamond","synthetic_diamond",2200090,32);</v>
       </c>
     </row>
@@ -6035,7 +6028,7 @@
         <v>49</v>
       </c>
       <c r="E82" s="4" t="str">
-        <f>"register(event,"&amp;A82&amp;","&amp;B82&amp;","&amp;C82&amp;","&amp;D82&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"player_head","raw_carbonado",2200091,32);</v>
       </c>
     </row>
@@ -6053,7 +6046,7 @@
         <v>8</v>
       </c>
       <c r="E83" s="4" t="str">
-        <f>"register(event,"&amp;A83&amp;","&amp;B83&amp;","&amp;C83&amp;","&amp;D83&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","nickel_ingot",2200092,16);</v>
       </c>
     </row>
@@ -6071,7 +6064,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="4" t="str">
-        <f>"register(event,"&amp;A84&amp;","&amp;B84&amp;","&amp;C84&amp;","&amp;D84&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","cobalt_ingot",2200093,16);</v>
       </c>
     </row>
@@ -6089,7 +6082,7 @@
         <v>49</v>
       </c>
       <c r="E85" s="4" t="str">
-        <f>"register(event,"&amp;A85&amp;","&amp;B85&amp;","&amp;C85&amp;","&amp;D85&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"player_head","carbonado",2200094,32);</v>
       </c>
     </row>
@@ -6107,7 +6100,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="4" t="str">
-        <f>"register(event,"&amp;A86&amp;","&amp;B86&amp;","&amp;C86&amp;","&amp;D86&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","ferrosilicon_ingot",2200095,16);</v>
       </c>
     </row>
@@ -6125,7 +6118,7 @@
         <v>49</v>
       </c>
       <c r="E87" s="4" t="str">
-        <f>"register(event,"&amp;A87&amp;","&amp;B87&amp;","&amp;C87&amp;","&amp;D87&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gunpowder","iron_dust",2200096,32);</v>
       </c>
     </row>
@@ -6143,7 +6136,7 @@
         <v>49</v>
       </c>
       <c r="E88" s="4" t="str">
-        <f>"register(event,"&amp;A88&amp;","&amp;B88&amp;","&amp;C88&amp;","&amp;D88&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"glowstone_dust","gold_dust",2200097,32);</v>
       </c>
     </row>
@@ -6161,7 +6154,7 @@
         <v>49</v>
       </c>
       <c r="E89" s="4" t="str">
-        <f>"register(event,"&amp;A89&amp;","&amp;B89&amp;","&amp;C89&amp;","&amp;D89&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"glowstone_dust","copper_dust",2200098,32);</v>
       </c>
     </row>
@@ -6179,7 +6172,7 @@
         <v>49</v>
       </c>
       <c r="E90" s="4" t="str">
-        <f>"register(event,"&amp;A90&amp;","&amp;B90&amp;","&amp;C90&amp;","&amp;D90&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"sugar","tin_dust",2200099,32);</v>
       </c>
     </row>
@@ -6197,7 +6190,7 @@
         <v>49</v>
       </c>
       <c r="E91" s="4" t="str">
-        <f>"register(event,"&amp;A91&amp;","&amp;B91&amp;","&amp;C91&amp;","&amp;D91&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gunpowder","lead_dust",2200100,32);</v>
       </c>
     </row>
@@ -6215,7 +6208,7 @@
         <v>49</v>
       </c>
       <c r="E92" s="4" t="str">
-        <f>"register(event,"&amp;A92&amp;","&amp;B92&amp;","&amp;C92&amp;","&amp;D92&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"sugar","silver_dust",2200101,32);</v>
       </c>
     </row>
@@ -6233,7 +6226,7 @@
         <v>49</v>
       </c>
       <c r="E93" s="4" t="str">
-        <f>"register(event,"&amp;A93&amp;","&amp;B93&amp;","&amp;C93&amp;","&amp;D93&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"sugar","aluminum_dust",2200102,32);</v>
       </c>
     </row>
@@ -6251,7 +6244,7 @@
         <v>49</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f>"register(event,"&amp;A94&amp;","&amp;B94&amp;","&amp;C94&amp;","&amp;D94&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gunpowder","zinc_dust",2200103,32);</v>
       </c>
     </row>
@@ -6269,7 +6262,7 @@
         <v>49</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f>"register(event,"&amp;A95&amp;","&amp;B95&amp;","&amp;C95&amp;","&amp;D95&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"sugar","magnesium_dust",2200104,32);</v>
       </c>
     </row>
@@ -6287,7 +6280,7 @@
         <v>49</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f>"register(event,"&amp;A96&amp;","&amp;B96&amp;","&amp;C96&amp;","&amp;D96&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"brick","copper_ingot",2200105,32);</v>
       </c>
     </row>
@@ -6305,7 +6298,7 @@
         <v>49</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f>"register(event,"&amp;A97&amp;","&amp;B97&amp;","&amp;C97&amp;","&amp;D97&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","tin_ingot",2200106,32);</v>
       </c>
     </row>
@@ -6323,7 +6316,7 @@
         <v>49</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f>"register(event,"&amp;A98&amp;","&amp;B98&amp;","&amp;C98&amp;","&amp;D98&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","silver_ingot",2200107,32);</v>
       </c>
     </row>
@@ -6341,7 +6334,7 @@
         <v>49</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f>"register(event,"&amp;A99&amp;","&amp;B99&amp;","&amp;C99&amp;","&amp;D99&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","lead_ingot",2200108,32);</v>
       </c>
     </row>
@@ -6359,7 +6352,7 @@
         <v>49</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f>"register(event,"&amp;A100&amp;","&amp;B100&amp;","&amp;C100&amp;","&amp;D100&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","aluminum_ingot",2200109,32);</v>
       </c>
     </row>
@@ -6377,7 +6370,7 @@
         <v>49</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f>"register(event,"&amp;A101&amp;","&amp;B101&amp;","&amp;C101&amp;","&amp;D101&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","zinc_ingot",2200110,32);</v>
       </c>
     </row>
@@ -6395,7 +6388,7 @@
         <v>49</v>
       </c>
       <c r="E102" s="4" t="str">
-        <f>"register(event,"&amp;A102&amp;","&amp;B102&amp;","&amp;C102&amp;","&amp;D102&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"iron_ingot","magnesium_ingot",2200111,32);</v>
       </c>
     </row>
@@ -6413,7 +6406,7 @@
         <v>49</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f>"register(event,"&amp;A103&amp;","&amp;B103&amp;","&amp;C103&amp;","&amp;D103&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"glowstone_dust","sulfate",2200112,32);</v>
       </c>
     </row>
@@ -6431,7 +6424,7 @@
         <v>49</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f>"register(event,"&amp;A104&amp;","&amp;B104&amp;","&amp;C104&amp;","&amp;D104&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"player_head","carbon",2200113,32);</v>
       </c>
     </row>
@@ -6449,7 +6442,7 @@
         <v>49</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f>"register(event,"&amp;A105&amp;","&amp;B105&amp;","&amp;C105&amp;","&amp;D105&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"sugar","wheat_flour",2200114,32);</v>
       </c>
     </row>
@@ -6467,7 +6460,7 @@
         <v>8</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f>"register(event,"&amp;A106&amp;","&amp;B106&amp;","&amp;C106&amp;","&amp;D106&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"paper","steel_plate",2200115,16);</v>
       </c>
     </row>
@@ -6485,7 +6478,7 @@
         <v>49</v>
       </c>
       <c r="E107" s="4" t="str">
-        <f>"register(event,"&amp;A107&amp;","&amp;B107&amp;","&amp;C107&amp;","&amp;D107&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"player_head","compressed_carbon",2200116,32);</v>
       </c>
     </row>
@@ -6503,7 +6496,7 @@
         <v>49</v>
       </c>
       <c r="E108" s="4" t="str">
-        <f>"register(event,"&amp;A108&amp;","&amp;B108&amp;","&amp;C108&amp;","&amp;D108&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"player_head","carbon_chunk",2200117,32);</v>
       </c>
     </row>
@@ -6521,7 +6514,7 @@
         <v>8</v>
       </c>
       <c r="E109" s="4" t="str">
-        <f>"register(event,"&amp;A109&amp;","&amp;B109&amp;","&amp;C109&amp;","&amp;D109&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"bucket","steel_thruster",2200118,16);</v>
       </c>
     </row>
@@ -6539,7 +6532,7 @@
         <v>8</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f>"register(event,"&amp;A110&amp;","&amp;B110&amp;","&amp;C110&amp;","&amp;D110&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"player_head","power_crystal",2200119,16);</v>
       </c>
     </row>
@@ -6557,7 +6550,7 @@
         <v>8</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f>"register(event,"&amp;A111&amp;","&amp;B111&amp;","&amp;C111&amp;","&amp;D111&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"string","chain",2200129,16);</v>
       </c>
     </row>
@@ -6575,7 +6568,7 @@
         <v>8</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f>"register(event,"&amp;A112&amp;","&amp;B112&amp;","&amp;C112&amp;","&amp;D112&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"flint","hook",2200130,16);</v>
       </c>
     </row>
@@ -6593,7 +6586,7 @@
         <v>8</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f>"register(event,"&amp;A113&amp;","&amp;B113&amp;","&amp;C113&amp;","&amp;D113&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"lead","grappling_hook",2200131,16);</v>
       </c>
     </row>
@@ -6611,7 +6604,7 @@
         <v>49</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f>"register(event,"&amp;A114&amp;","&amp;B114&amp;","&amp;C114&amp;","&amp;D114&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"crafting_table","magic_workbench",2200132,32);</v>
       </c>
     </row>
@@ -6629,7 +6622,7 @@
         <v>8</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f>"register(event,"&amp;A115&amp;","&amp;B115&amp;","&amp;C115&amp;","&amp;D115&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"stick","elemental_staff",2200133,16);</v>
       </c>
     </row>
@@ -6647,7 +6640,7 @@
         <v>8</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f>"register(event,"&amp;A116&amp;","&amp;B116&amp;","&amp;C116&amp;","&amp;D116&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"stick","elemental_staff_wind",2200134,16);</v>
       </c>
     </row>
@@ -6665,7 +6658,7 @@
         <v>8</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f>"register(event,"&amp;A117&amp;","&amp;B117&amp;","&amp;C117&amp;","&amp;D117&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"stick","elemental_staff_water",2200135,16);</v>
       </c>
     </row>
@@ -6683,7 +6676,7 @@
         <v>49</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f>"register(event,"&amp;A118&amp;","&amp;B118&amp;","&amp;C118&amp;","&amp;D118&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"cauldron","ore_washer",2200143,32);</v>
       </c>
     </row>
@@ -6701,7 +6694,7 @@
         <v>49</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f>"register(event,"&amp;A119&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;D119&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_24k",2200144,32);</v>
       </c>
     </row>
@@ -6719,7 +6712,7 @@
         <v>49</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f>"register(event,"&amp;A120&amp;","&amp;B120&amp;","&amp;C120&amp;","&amp;D120&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_22k",2200145,32);</v>
       </c>
     </row>
@@ -6737,7 +6730,7 @@
         <v>49</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f>"register(event,"&amp;A121&amp;","&amp;B121&amp;","&amp;C121&amp;","&amp;D121&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_20k",2200146,32);</v>
       </c>
     </row>
@@ -6755,7 +6748,7 @@
         <v>49</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f>"register(event,"&amp;A122&amp;","&amp;B122&amp;","&amp;C122&amp;","&amp;D122&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_18k",2200147,32);</v>
       </c>
     </row>
@@ -6773,7 +6766,7 @@
         <v>49</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f>"register(event,"&amp;A123&amp;","&amp;B123&amp;","&amp;C123&amp;","&amp;D123&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_16k",2200148,32);</v>
       </c>
     </row>
@@ -6791,7 +6784,7 @@
         <v>49</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f>"register(event,"&amp;A124&amp;","&amp;B124&amp;","&amp;C124&amp;","&amp;D124&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_14k",2200149,32);</v>
       </c>
     </row>
@@ -6809,7 +6802,7 @@
         <v>49</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f>"register(event,"&amp;A125&amp;","&amp;B125&amp;","&amp;C125&amp;","&amp;D125&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_12k",2200150,32);</v>
       </c>
     </row>
@@ -6827,7 +6820,7 @@
         <v>49</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f>"register(event,"&amp;A126&amp;","&amp;B126&amp;","&amp;C126&amp;","&amp;D126&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_10k",2200151,32);</v>
       </c>
     </row>
@@ -6845,7 +6838,7 @@
         <v>49</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f>"register(event,"&amp;A127&amp;","&amp;B127&amp;","&amp;C127&amp;","&amp;D127&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_8k",2200152,32);</v>
       </c>
     </row>
@@ -6863,7 +6856,7 @@
         <v>49</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f>"register(event,"&amp;A128&amp;","&amp;B128&amp;","&amp;C128&amp;","&amp;D128&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_6k",2200153,32);</v>
       </c>
     </row>
@@ -6881,7 +6874,7 @@
         <v>49</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f>"register(event,"&amp;A129&amp;","&amp;B129&amp;","&amp;C129&amp;","&amp;D129&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>register(event,"gold_ingot","gold_ingot_4k",2200154,32);</v>
       </c>
     </row>
@@ -6899,7 +6892,7 @@
         <v>8</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f>"register(event,"&amp;A130&amp;","&amp;B130&amp;","&amp;C130&amp;","&amp;D130&amp;");"</f>
+        <f t="shared" ref="E130:E193" si="2">"register(event,"&amp;A130&amp;","&amp;B130&amp;","&amp;C130&amp;","&amp;D130&amp;");"</f>
         <v>register(event,"player_head","stone_chunk",2200155,16);</v>
       </c>
     </row>
@@ -6917,7 +6910,7 @@
         <v>49</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f>"register(event,"&amp;A131&amp;","&amp;B131&amp;","&amp;C131&amp;","&amp;D131&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"firework_star","silicon",2200156,32);</v>
       </c>
     </row>
@@ -6935,7 +6928,7 @@
         <v>8</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f>"register(event,"&amp;A132&amp;","&amp;B132&amp;","&amp;C132&amp;","&amp;D132&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"player_head","lava_crystal",2200159,16);</v>
       </c>
     </row>
@@ -6953,7 +6946,7 @@
         <v>8</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f>"register(event,"&amp;A133&amp;","&amp;B133&amp;","&amp;C133&amp;","&amp;D133&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"stick","elemental_staff_fire",2200160,16);</v>
       </c>
     </row>
@@ -6971,7 +6964,7 @@
         <v>8</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f>"register(event,"&amp;A134&amp;","&amp;B134&amp;","&amp;C134&amp;","&amp;D134&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"stick","elemental_staff_storm",2200161,16);</v>
       </c>
     </row>
@@ -6989,7 +6982,7 @@
         <v>8</v>
       </c>
       <c r="E135" s="4" t="str">
-        <f>"register(event,"&amp;A135&amp;","&amp;B135&amp;","&amp;C135&amp;","&amp;D135&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"nether_wart","magical_zombie_pills",2200162,16);</v>
       </c>
     </row>
@@ -7007,7 +7000,7 @@
         <v>8</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f>"register(event,"&amp;A136&amp;","&amp;B136&amp;","&amp;C136&amp;","&amp;D136&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"diamond_pickaxe","smelters_pickaxe",2200163,16);</v>
       </c>
     </row>
@@ -7025,7 +7018,7 @@
         <v>8</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f>"register(event,"&amp;A137&amp;","&amp;B137&amp;","&amp;C137&amp;","&amp;D137&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","common_talisman",2200164,16);</v>
       </c>
     </row>
@@ -7043,7 +7036,7 @@
         <v>8</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f>"register(event,"&amp;A138&amp;","&amp;B138&amp;","&amp;C138&amp;","&amp;D138&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_anvil",2200165,16);</v>
       </c>
     </row>
@@ -7061,7 +7054,7 @@
         <v>8</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f>"register(event,"&amp;A139&amp;","&amp;B139&amp;","&amp;C139&amp;","&amp;D139&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_anvil",2200166,16);</v>
       </c>
     </row>
@@ -7079,7 +7072,7 @@
         <v>8</v>
       </c>
       <c r="E140" s="4" t="str">
-        <f>"register(event,"&amp;A140&amp;","&amp;B140&amp;","&amp;C140&amp;","&amp;D140&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_miner",2200167,16);</v>
       </c>
     </row>
@@ -7097,7 +7090,7 @@
         <v>8</v>
       </c>
       <c r="E141" s="4" t="str">
-        <f>"register(event,"&amp;A141&amp;","&amp;B141&amp;","&amp;C141&amp;","&amp;D141&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_miner",2200168,16);</v>
       </c>
     </row>
@@ -7115,7 +7108,7 @@
         <v>8</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f>"register(event,"&amp;A142&amp;","&amp;B142&amp;","&amp;C142&amp;","&amp;D142&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_hunter",2200169,16);</v>
       </c>
     </row>
@@ -7133,7 +7126,7 @@
         <v>8</v>
       </c>
       <c r="E143" s="4" t="str">
-        <f>"register(event,"&amp;A143&amp;","&amp;B143&amp;","&amp;C143&amp;","&amp;D143&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_hunter",2200170,16);</v>
       </c>
     </row>
@@ -7151,7 +7144,7 @@
         <v>8</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f>"register(event,"&amp;A144&amp;","&amp;B144&amp;","&amp;C144&amp;","&amp;D144&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_lava_walker",2200171,16);</v>
       </c>
     </row>
@@ -7169,7 +7162,7 @@
         <v>8</v>
       </c>
       <c r="E145" s="4" t="str">
-        <f>"register(event,"&amp;A145&amp;","&amp;B145&amp;","&amp;C145&amp;","&amp;D145&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_lava_walker",2200172,16);</v>
       </c>
     </row>
@@ -7187,7 +7180,7 @@
         <v>8</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f>"register(event,"&amp;A146&amp;","&amp;B146&amp;","&amp;C146&amp;","&amp;D146&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_water_breather",2200173,16);</v>
       </c>
     </row>
@@ -7205,7 +7198,7 @@
         <v>8</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f>"register(event,"&amp;A147&amp;","&amp;B147&amp;","&amp;C147&amp;","&amp;D147&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_water_breather",2200174,16);</v>
       </c>
     </row>
@@ -7223,7 +7216,7 @@
         <v>8</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f>"register(event,"&amp;A148&amp;","&amp;B148&amp;","&amp;C148&amp;","&amp;D148&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_angel",2200175,16);</v>
       </c>
     </row>
@@ -7241,7 +7234,7 @@
         <v>8</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f>"register(event,"&amp;A149&amp;","&amp;B149&amp;","&amp;C149&amp;","&amp;D149&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_angel",2200176,16);</v>
       </c>
     </row>
@@ -7259,7 +7252,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f>"register(event,"&amp;A150&amp;","&amp;B150&amp;","&amp;C150&amp;","&amp;D150&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_firefighter",2200177,16);</v>
       </c>
     </row>
@@ -7277,7 +7270,7 @@
         <v>8</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f>"register(event,"&amp;A151&amp;","&amp;B151&amp;","&amp;C151&amp;","&amp;D151&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_firefighter",2200178,16);</v>
       </c>
     </row>
@@ -7295,7 +7288,7 @@
         <v>8</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f>"register(event,"&amp;A152&amp;","&amp;B152&amp;","&amp;C152&amp;","&amp;D152&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_magician",2200179,16);</v>
       </c>
     </row>
@@ -7313,7 +7306,7 @@
         <v>8</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f>"register(event,"&amp;A153&amp;","&amp;B153&amp;","&amp;C153&amp;","&amp;D153&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_magician",2200180,16);</v>
       </c>
     </row>
@@ -7331,7 +7324,7 @@
         <v>8</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f>"register(event,"&amp;A154&amp;","&amp;B154&amp;","&amp;C154&amp;","&amp;D154&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_traveller",2200181,16);</v>
       </c>
     </row>
@@ -7349,7 +7342,7 @@
         <v>8</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f>"register(event,"&amp;A155&amp;","&amp;B155&amp;","&amp;C155&amp;","&amp;D155&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_traveller",2200182,16);</v>
       </c>
     </row>
@@ -7367,7 +7360,7 @@
         <v>8</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f>"register(event,"&amp;A156&amp;","&amp;B156&amp;","&amp;C156&amp;","&amp;D156&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","warrior_talisman",2200183,16);</v>
       </c>
     </row>
@@ -7385,7 +7378,7 @@
         <v>8</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f>"register(event,"&amp;A157&amp;","&amp;B157&amp;","&amp;C157&amp;","&amp;D157&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_warrior_talisman",2200184,16);</v>
       </c>
     </row>
@@ -7403,7 +7396,7 @@
         <v>8</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f>"register(event,"&amp;A158&amp;","&amp;B158&amp;","&amp;C158&amp;","&amp;D158&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_knight",2200185,16);</v>
       </c>
     </row>
@@ -7421,7 +7414,7 @@
         <v>8</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f>"register(event,"&amp;A159&amp;","&amp;B159&amp;","&amp;C159&amp;","&amp;D159&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_knight",2200186,16);</v>
       </c>
     </row>
@@ -7439,7 +7432,7 @@
         <v>8</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f>"register(event,"&amp;A160&amp;","&amp;B160&amp;","&amp;C160&amp;","&amp;D160&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"gold_ingot","gilded_iron",2200187,16);</v>
       </c>
     </row>
@@ -7457,7 +7450,7 @@
         <v>49</v>
       </c>
       <c r="E161" s="4" t="str">
-        <f>"register(event,"&amp;A161&amp;","&amp;B161&amp;","&amp;C161&amp;","&amp;D161&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","synthetic_emerald",2200188,32);</v>
       </c>
     </row>
@@ -7475,7 +7468,7 @@
         <v>8</v>
       </c>
       <c r="E162" s="4" t="str">
-        <f>"register(event,"&amp;A162&amp;","&amp;B162&amp;","&amp;C162&amp;","&amp;D162&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_whirlwind",2200193,16);</v>
       </c>
     </row>
@@ -7493,7 +7486,7 @@
         <v>8</v>
       </c>
       <c r="E163" s="4" t="str">
-        <f>"register(event,"&amp;A163&amp;","&amp;B163&amp;","&amp;C163&amp;","&amp;D163&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_whirlwind",2200194,16);</v>
       </c>
     </row>
@@ -7511,7 +7504,7 @@
         <v>8</v>
       </c>
       <c r="E164" s="4" t="str">
-        <f>"register(event,"&amp;A164&amp;","&amp;B164&amp;","&amp;C164&amp;","&amp;D164&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","talisman_of_the_wizard",2200195,16);</v>
       </c>
     </row>
@@ -7529,7 +7522,7 @@
         <v>8</v>
       </c>
       <c r="E165" s="4" t="str">
-        <f>"register(event,"&amp;A165&amp;","&amp;B165&amp;","&amp;C165&amp;","&amp;D165&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"emerald","ender_talisman_of_the_wizard",2200196,16);</v>
       </c>
     </row>
@@ -7547,7 +7540,7 @@
         <v>8</v>
       </c>
       <c r="E166" s="4" t="str">
-        <f>"register(event,"&amp;A166&amp;","&amp;B166&amp;","&amp;C166&amp;","&amp;D166&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"diamond_axe","lumber_axe",2200197,16);</v>
       </c>
     </row>
@@ -7565,7 +7558,7 @@
         <v>49</v>
       </c>
       <c r="E167" s="4" t="str">
-        <f>"register(event,"&amp;A167&amp;","&amp;B167&amp;","&amp;C167&amp;","&amp;D167&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"sugar","salt",2200198,32);</v>
       </c>
     </row>
@@ -7583,7 +7576,7 @@
         <v>8</v>
       </c>
       <c r="E168" s="4" t="str">
-        <f>"register(event,"&amp;A168&amp;","&amp;B168&amp;","&amp;C168&amp;","&amp;D168&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"snowball","heavy_cream",2200199,16);</v>
       </c>
     </row>
@@ -7601,7 +7594,7 @@
         <v>8</v>
       </c>
       <c r="E169" s="4" t="str">
-        <f>"register(event,"&amp;A169&amp;","&amp;B169&amp;","&amp;C169&amp;","&amp;D169&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"player_head","cheese",2200200,16);</v>
       </c>
     </row>
@@ -7619,7 +7612,7 @@
         <v>8</v>
       </c>
       <c r="E170" s="4" t="str">
-        <f>"register(event,"&amp;A170&amp;","&amp;B170&amp;","&amp;C170&amp;","&amp;D170&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"player_head","butter",2200201,16);</v>
       </c>
     </row>
@@ -7637,7 +7630,7 @@
         <v>8</v>
       </c>
       <c r="E171" s="4" t="str">
-        <f>"register(event,"&amp;A171&amp;","&amp;B171&amp;","&amp;C171&amp;","&amp;D171&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"golden_helmet","gilded_iron_helmet",2200202,16);</v>
       </c>
     </row>
@@ -7655,7 +7648,7 @@
         <v>8</v>
       </c>
       <c r="E172" s="4" t="str">
-        <f>"register(event,"&amp;A172&amp;","&amp;B172&amp;","&amp;C172&amp;","&amp;D172&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"golden_chestplate","gilded_iron_chestplate",2200203,16);</v>
       </c>
     </row>
@@ -7673,7 +7666,7 @@
         <v>8</v>
       </c>
       <c r="E173" s="4" t="str">
-        <f>"register(event,"&amp;A173&amp;","&amp;B173&amp;","&amp;C173&amp;","&amp;D173&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"golden_leggings","gilded_iron_leggings",2200204,16);</v>
       </c>
     </row>
@@ -7691,7 +7684,7 @@
         <v>8</v>
       </c>
       <c r="E174" s="4" t="str">
-        <f>"register(event,"&amp;A174&amp;","&amp;B174&amp;","&amp;C174&amp;","&amp;D174&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"golden_boots","gilded_iron_boots",2200205,16);</v>
       </c>
     </row>
@@ -7709,7 +7702,7 @@
         <v>8</v>
       </c>
       <c r="E175" s="4" t="str">
-        <f>"register(event,"&amp;A175&amp;","&amp;B175&amp;","&amp;C175&amp;","&amp;D175&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"paper","reinforced_cloth",2200206,16);</v>
       </c>
     </row>
@@ -7727,7 +7720,7 @@
         <v>8</v>
       </c>
       <c r="E176" s="4" t="str">
-        <f>"register(event,"&amp;A176&amp;","&amp;B176&amp;","&amp;C176&amp;","&amp;D176&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"leather_helmet","scuba_helmet",2200207,16);</v>
       </c>
     </row>
@@ -7745,7 +7738,7 @@
         <v>8</v>
       </c>
       <c r="E177" s="4" t="str">
-        <f>"register(event,"&amp;A177&amp;","&amp;B177&amp;","&amp;C177&amp;","&amp;D177&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"leather_chestplate","hazmat_chestplate",2200208,16);</v>
       </c>
     </row>
@@ -7763,7 +7756,7 @@
         <v>8</v>
       </c>
       <c r="E178" s="4" t="str">
-        <f>"register(event,"&amp;A178&amp;","&amp;B178&amp;","&amp;C178&amp;","&amp;D178&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"leather_leggings","hazmat_leggings",2200209,16);</v>
       </c>
     </row>
@@ -7781,7 +7774,7 @@
         <v>8</v>
       </c>
       <c r="E179" s="4" t="str">
-        <f>"register(event,"&amp;A179&amp;","&amp;B179&amp;","&amp;C179&amp;","&amp;D179&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"leather_boots","rubber_boots",2200210,16);</v>
       </c>
     </row>
@@ -7799,7 +7792,7 @@
         <v>8</v>
       </c>
       <c r="E180" s="4" t="str">
-        <f>"register(event,"&amp;A180&amp;","&amp;B180&amp;","&amp;C180&amp;","&amp;D180&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"gunpowder","crushed_ore",2200211,16);</v>
       </c>
     </row>
@@ -7817,7 +7810,7 @@
         <v>8</v>
       </c>
       <c r="E181" s="4" t="str">
-        <f>"register(event,"&amp;A181&amp;","&amp;B181&amp;","&amp;C181&amp;","&amp;D181&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"gunpowder","pulverized_ore",2200212,16);</v>
       </c>
     </row>
@@ -7835,7 +7828,7 @@
         <v>8</v>
       </c>
       <c r="E182" s="4" t="str">
-        <f>"register(event,"&amp;A182&amp;","&amp;B182&amp;","&amp;C182&amp;","&amp;D182&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"gunpowder","pure_ore_cluster",2200213,16);</v>
       </c>
     </row>
@@ -7853,7 +7846,7 @@
         <v>8</v>
       </c>
       <c r="E183" s="4" t="str">
-        <f>"register(event,"&amp;A183&amp;","&amp;B183&amp;","&amp;C183&amp;","&amp;D183&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"player_head","tiny_pile_of_uranium",2200214,16);</v>
       </c>
     </row>
@@ -7871,7 +7864,7 @@
         <v>8</v>
       </c>
       <c r="E184" s="4" t="str">
-        <f>"register(event,"&amp;A184&amp;","&amp;B184&amp;","&amp;C184&amp;","&amp;D184&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"player_head","small_chunk_of_uranium",2200215,16);</v>
       </c>
     </row>
@@ -7889,7 +7882,7 @@
         <v>49</v>
       </c>
       <c r="E185" s="4" t="str">
-        <f>"register(event,"&amp;A185&amp;","&amp;B185&amp;","&amp;C185&amp;","&amp;D185&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"player_head","uranium",2200216,32);</v>
       </c>
     </row>
@@ -7907,7 +7900,7 @@
         <v>8</v>
       </c>
       <c r="E186" s="4" t="str">
-        <f>"register(event,"&amp;A186&amp;","&amp;B186&amp;","&amp;C186&amp;","&amp;D186&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"brick","redstone_alloy_ingot",2200217,16);</v>
       </c>
     </row>
@@ -7925,7 +7918,7 @@
         <v>8</v>
       </c>
       <c r="E187" s="4" t="str">
-        <f>"register(event,"&amp;A187&amp;","&amp;B187&amp;","&amp;C187&amp;","&amp;D187&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"golden_helmet","gold_12k_helmet",2200218,16);</v>
       </c>
     </row>
@@ -7943,7 +7936,7 @@
         <v>8</v>
       </c>
       <c r="E188" s="4" t="str">
-        <f>"register(event,"&amp;A188&amp;","&amp;B188&amp;","&amp;C188&amp;","&amp;D188&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"golden_chestplate","gold_12k_chestplate",2200219,16);</v>
       </c>
     </row>
@@ -7961,7 +7954,7 @@
         <v>8</v>
       </c>
       <c r="E189" s="4" t="str">
-        <f>"register(event,"&amp;A189&amp;","&amp;B189&amp;","&amp;C189&amp;","&amp;D189&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"golden_leggings","gold_12k_leggings",2200220,16);</v>
       </c>
     </row>
@@ -7979,7 +7972,7 @@
         <v>8</v>
       </c>
       <c r="E190" s="4" t="str">
-        <f>"register(event,"&amp;A190&amp;","&amp;B190&amp;","&amp;C190&amp;","&amp;D190&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"golden_boots","gold_12k_boots",2200221,16);</v>
       </c>
     </row>
@@ -7997,7 +7990,7 @@
         <v>8</v>
       </c>
       <c r="E191" s="4" t="str">
-        <f>"register(event,"&amp;A191&amp;","&amp;B191&amp;","&amp;C191&amp;","&amp;D191&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"paper","cloth",2200222,16);</v>
       </c>
     </row>
@@ -8015,7 +8008,7 @@
         <v>8</v>
       </c>
       <c r="E192" s="4" t="str">
-        <f>"register(event,"&amp;A192&amp;","&amp;B192&amp;","&amp;C192&amp;","&amp;D192&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"paper","rag",2200223,16);</v>
       </c>
     </row>
@@ -8033,7 +8026,7 @@
         <v>8</v>
       </c>
       <c r="E193" s="4" t="str">
-        <f>"register(event,"&amp;A193&amp;","&amp;B193&amp;","&amp;C193&amp;","&amp;D193&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>register(event,"paper","bandage",2200224,16);</v>
       </c>
     </row>
@@ -8051,7 +8044,7 @@
         <v>8</v>
       </c>
       <c r="E194" s="4" t="str">
-        <f>"register(event,"&amp;A194&amp;","&amp;B194&amp;","&amp;C194&amp;","&amp;D194&amp;");"</f>
+        <f t="shared" ref="E194:E257" si="3">"register(event,"&amp;A194&amp;","&amp;B194&amp;","&amp;C194&amp;","&amp;D194&amp;");"</f>
         <v>register(event,"stick","splint",2200225,16);</v>
       </c>
     </row>
@@ -8069,7 +8062,7 @@
         <v>8</v>
       </c>
       <c r="E195" s="4" t="str">
-        <f>"register(event,"&amp;A195&amp;","&amp;B195&amp;","&amp;C195&amp;","&amp;D195&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","tin_can",2200226,16);</v>
       </c>
     </row>
@@ -8087,7 +8080,7 @@
         <v>8</v>
       </c>
       <c r="E196" s="4" t="str">
-        <f>"register(event,"&amp;A196&amp;","&amp;B196&amp;","&amp;C196&amp;","&amp;D196&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"nether_wart","vitamins",2200227,16);</v>
       </c>
     </row>
@@ -8105,7 +8098,7 @@
         <v>8</v>
       </c>
       <c r="E197" s="4" t="str">
-        <f>"register(event,"&amp;A197&amp;","&amp;B197&amp;","&amp;C197&amp;","&amp;D197&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"potion","medicine",2200228,16);</v>
       </c>
     </row>
@@ -8123,7 +8116,7 @@
         <v>8</v>
       </c>
       <c r="E198" s="4" t="str">
-        <f>"register(event,"&amp;A198&amp;","&amp;B198&amp;","&amp;C198&amp;","&amp;D198&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"iron_pickaxe","pickaxe_of_containment",2200230,16);</v>
       </c>
     </row>
@@ -8141,7 +8134,7 @@
         <v>8</v>
       </c>
       <c r="E199" s="4" t="str">
-        <f>"register(event,"&amp;A199&amp;","&amp;B199&amp;","&amp;C199&amp;","&amp;D199&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"iron_pickaxe","hercules_pickaxe",2200231,16);</v>
       </c>
     </row>
@@ -8159,7 +8152,7 @@
         <v>49</v>
       </c>
       <c r="E200" s="4" t="str">
-        <f>"register(event,"&amp;A200&amp;","&amp;B200&amp;","&amp;C200&amp;","&amp;D200&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"stonecutter","table_saw",2200232,32);</v>
       </c>
     </row>
@@ -8177,7 +8170,7 @@
         <v>8</v>
       </c>
       <c r="E201" s="4" t="str">
-        <f>"register(event,"&amp;A201&amp;","&amp;B201&amp;","&amp;C201&amp;","&amp;D201&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"golden_sword","blade_of_vampires",2200237,16);</v>
       </c>
     </row>
@@ -8195,7 +8188,7 @@
         <v>49</v>
       </c>
       <c r="E202" s="4" t="str">
-        <f>"register(event,"&amp;A202&amp;","&amp;B202&amp;","&amp;C202&amp;","&amp;D202&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"gold_block","gold_block_24",2200238,32);</v>
       </c>
     </row>
@@ -8213,7 +8206,7 @@
         <v>49</v>
       </c>
       <c r="E203" s="4" t="str">
-        <f>"register(event,"&amp;A203&amp;","&amp;B203&amp;","&amp;C203&amp;","&amp;D203&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"cauldron","composter",2200239,32);</v>
       </c>
     </row>
@@ -8231,7 +8224,7 @@
         <v>8</v>
       </c>
       <c r="E204" s="4" t="str">
-        <f>"register(event,"&amp;A204&amp;","&amp;B204&amp;","&amp;C204&amp;","&amp;D204&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_pickaxe","explosive_pickaxe",2200241,16);</v>
       </c>
     </row>
@@ -8249,7 +8242,7 @@
         <v>8</v>
       </c>
       <c r="E205" s="4" t="str">
-        <f>"register(event,"&amp;A205&amp;","&amp;B205&amp;","&amp;C205&amp;","&amp;D205&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_shovel","explosive_shovel",2200242,16);</v>
       </c>
     </row>
@@ -8267,7 +8260,7 @@
         <v>49</v>
       </c>
       <c r="E206" s="4" t="str">
-        <f>"register(event,"&amp;A206&amp;","&amp;B206&amp;","&amp;C206&amp;","&amp;D206&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"bowl","automated_panning_machine",2200243,32);</v>
       </c>
     </row>
@@ -8285,7 +8278,7 @@
         <v>49</v>
       </c>
       <c r="E207" s="4" t="str">
-        <f>"register(event,"&amp;A207&amp;","&amp;B207&amp;","&amp;C207&amp;","&amp;D207&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"golden_pickaxe","industrial_miner",2200244,32);</v>
       </c>
     </row>
@@ -8303,7 +8296,7 @@
         <v>49</v>
       </c>
       <c r="E208" s="4" t="str">
-        <f>"register(event,"&amp;A208&amp;","&amp;B208&amp;","&amp;C208&amp;","&amp;D208&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_pickaxe","advanced_industrial_miner",2200245,32);</v>
       </c>
     </row>
@@ -8321,7 +8314,7 @@
         <v>8</v>
       </c>
       <c r="E209" s="4" t="str">
-        <f>"register(event,"&amp;A209&amp;","&amp;B209&amp;","&amp;C209&amp;","&amp;D209&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_pickaxe","pickaxe_of_the_seeker",2200247,16);</v>
       </c>
     </row>
@@ -8339,7 +8332,7 @@
         <v>8</v>
       </c>
       <c r="E210" s="4" t="str">
-        <f>"register(event,"&amp;A210&amp;","&amp;B210&amp;","&amp;C210&amp;","&amp;D210&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","small_backpack",2200248,16);</v>
       </c>
     </row>
@@ -8357,7 +8350,7 @@
         <v>8</v>
       </c>
       <c r="E211" s="4" t="str">
-        <f>"register(event,"&amp;A211&amp;","&amp;B211&amp;","&amp;C211&amp;","&amp;D211&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","medium_backpack",2200249,16);</v>
       </c>
     </row>
@@ -8375,7 +8368,7 @@
         <v>8</v>
       </c>
       <c r="E212" s="4" t="str">
-        <f>"register(event,"&amp;A212&amp;","&amp;B212&amp;","&amp;C212&amp;","&amp;D212&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","large_backpack",2200250,16);</v>
       </c>
     </row>
@@ -8393,7 +8386,7 @@
         <v>8</v>
       </c>
       <c r="E213" s="4" t="str">
-        <f>"register(event,"&amp;A213&amp;","&amp;B213&amp;","&amp;C213&amp;","&amp;D213&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","woven_backpack",2200251,16);</v>
       </c>
     </row>
@@ -8411,7 +8404,7 @@
         <v>49</v>
       </c>
       <c r="E214" s="4" t="str">
-        <f>"register(event,"&amp;A214&amp;","&amp;B214&amp;","&amp;C214&amp;","&amp;D214&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"cauldron","crucible",2200252,32);</v>
       </c>
     </row>
@@ -8429,7 +8422,7 @@
         <v>8</v>
       </c>
       <c r="E215" s="4" t="str">
-        <f>"register(event,"&amp;A215&amp;","&amp;B215&amp;","&amp;C215&amp;","&amp;D215&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","gilded_backpack",2200253,16);</v>
       </c>
     </row>
@@ -8447,7 +8440,7 @@
         <v>8</v>
       </c>
       <c r="E216" s="4" t="str">
-        <f>"register(event,"&amp;A216&amp;","&amp;B216&amp;","&amp;C216&amp;","&amp;D216&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","radiant_backpack",2200254,16);</v>
       </c>
     </row>
@@ -8465,7 +8458,7 @@
         <v>8</v>
       </c>
       <c r="E217" s="4" t="str">
-        <f>"register(event,"&amp;A217&amp;","&amp;B217&amp;","&amp;C217&amp;","&amp;D217&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","magnet",2200256,16);</v>
       </c>
     </row>
@@ -8483,7 +8476,7 @@
         <v>8</v>
       </c>
       <c r="E218" s="4" t="str">
-        <f>"register(event,"&amp;A218&amp;","&amp;B218&amp;","&amp;C218&amp;","&amp;D218&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","infused_magnet",2200257,16);</v>
       </c>
     </row>
@@ -8501,7 +8494,7 @@
         <v>8</v>
       </c>
       <c r="E219" s="4" t="str">
-        <f>"register(event,"&amp;A219&amp;","&amp;B219&amp;","&amp;C219&amp;","&amp;D219&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"iron_pickaxe","cobalt_pickaxe",2200258,16);</v>
       </c>
     </row>
@@ -8519,7 +8512,7 @@
         <v>49</v>
       </c>
       <c r="E220" s="4" t="str">
-        <f>"register(event,"&amp;A220&amp;","&amp;B220&amp;","&amp;C220&amp;","&amp;D220&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","necrotic_skull",2200259,32);</v>
       </c>
     </row>
@@ -8537,7 +8530,7 @@
         <v>8</v>
       </c>
       <c r="E221" s="4" t="str">
-        <f>"register(event,"&amp;A221&amp;","&amp;B221&amp;","&amp;C221&amp;","&amp;D221&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"gunpowder","essence_of_afterlife",2200260,16);</v>
       </c>
     </row>
@@ -8555,7 +8548,7 @@
         <v>8</v>
       </c>
       <c r="E222" s="4" t="str">
-        <f>"register(event,"&amp;A222&amp;","&amp;B222&amp;","&amp;C222&amp;","&amp;D222&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","bound_backpack",2200261,16);</v>
       </c>
     </row>
@@ -8573,7 +8566,7 @@
         <v>8</v>
       </c>
       <c r="E223" s="4" t="str">
-        <f>"register(event,"&amp;A223&amp;","&amp;B223&amp;","&amp;C223&amp;","&amp;D223&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"iron_axe","seismic_axe",2200270,16);</v>
       </c>
     </row>
@@ -8591,7 +8584,7 @@
         <v>8</v>
       </c>
       <c r="E224" s="4" t="str">
-        <f>"register(event,"&amp;A224&amp;","&amp;B224&amp;","&amp;C224&amp;","&amp;D224&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_pickaxe","pickaxe_of_vein_mining",2200271,16);</v>
       </c>
     </row>
@@ -8609,7 +8602,7 @@
         <v>8</v>
       </c>
       <c r="E225" s="4" t="str">
-        <f>"register(event,"&amp;A225&amp;","&amp;B225&amp;","&amp;C225&amp;","&amp;D225&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_sword","soulbound_sword",2200272,16);</v>
       </c>
     </row>
@@ -8627,7 +8620,7 @@
         <v>8</v>
       </c>
       <c r="E226" s="4" t="str">
-        <f>"register(event,"&amp;A226&amp;","&amp;B226&amp;","&amp;C226&amp;","&amp;D226&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"trident","soulbound_trident",2200273,16);</v>
       </c>
     </row>
@@ -8645,7 +8638,7 @@
         <v>49</v>
       </c>
       <c r="E227" s="4" t="str">
-        <f>"register(event,"&amp;A227&amp;","&amp;B227&amp;","&amp;C227&amp;","&amp;D227&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"bow","soulbound_bow",2200274,32);</v>
       </c>
     </row>
@@ -8663,7 +8656,7 @@
         <v>8</v>
       </c>
       <c r="E228" s="4" t="str">
-        <f>"register(event,"&amp;A228&amp;","&amp;B228&amp;","&amp;C228&amp;","&amp;D228&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_pickaxe","soulbound_pickaxe",2200275,16);</v>
       </c>
     </row>
@@ -8681,7 +8674,7 @@
         <v>8</v>
       </c>
       <c r="E229" s="4" t="str">
-        <f>"register(event,"&amp;A229&amp;","&amp;B229&amp;","&amp;C229&amp;","&amp;D229&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_axe","soulbound_axe",2200276,16);</v>
       </c>
     </row>
@@ -8699,7 +8692,7 @@
         <v>8</v>
       </c>
       <c r="E230" s="4" t="str">
-        <f>"register(event,"&amp;A230&amp;","&amp;B230&amp;","&amp;C230&amp;","&amp;D230&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_shovel","soulbound_shovel",2200277,16);</v>
       </c>
     </row>
@@ -8717,7 +8710,7 @@
         <v>8</v>
       </c>
       <c r="E231" s="4" t="str">
-        <f>"register(event,"&amp;A231&amp;","&amp;B231&amp;","&amp;C231&amp;","&amp;D231&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"diamond_hoe","soulbound_hoe",2200278,16);</v>
       </c>
     </row>
@@ -8735,7 +8728,7 @@
         <v>49</v>
       </c>
       <c r="E232" s="4" t="str">
-        <f>"register(event,"&amp;A232&amp;","&amp;B232&amp;","&amp;C232&amp;","&amp;D232&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"glass_bottle","juicer",2200283,32);</v>
       </c>
     </row>
@@ -8753,7 +8746,7 @@
         <v>49</v>
       </c>
       <c r="E233" s="4" t="str">
-        <f>"register(event,"&amp;A233&amp;","&amp;B233&amp;","&amp;C233&amp;","&amp;D233&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"potion","apple_juice",2200284,32);</v>
       </c>
     </row>
@@ -8771,7 +8764,7 @@
         <v>49</v>
       </c>
       <c r="E234" s="4" t="str">
-        <f>"register(event,"&amp;A234&amp;","&amp;B234&amp;","&amp;C234&amp;","&amp;D234&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"potion","carrot_juice",2200285,32);</v>
       </c>
     </row>
@@ -8789,7 +8782,7 @@
         <v>49</v>
       </c>
       <c r="E235" s="4" t="str">
-        <f>"register(event,"&amp;A235&amp;","&amp;B235&amp;","&amp;C235&amp;","&amp;D235&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"potion","melon_juice",2200286,32);</v>
       </c>
     </row>
@@ -8807,7 +8800,7 @@
         <v>49</v>
       </c>
       <c r="E236" s="4" t="str">
-        <f>"register(event,"&amp;A236&amp;","&amp;B236&amp;","&amp;C236&amp;","&amp;D236&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"potion","pumpkin_juice",2200287,32);</v>
       </c>
     </row>
@@ -8825,7 +8818,7 @@
         <v>49</v>
       </c>
       <c r="E237" s="4" t="str">
-        <f>"register(event,"&amp;A237&amp;","&amp;B237&amp;","&amp;C237&amp;","&amp;D237&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"potion","sweet_berry_juice",2200288,32);</v>
       </c>
     </row>
@@ -8843,7 +8836,7 @@
         <v>8</v>
       </c>
       <c r="E238" s="4" t="str">
-        <f>"register(event,"&amp;A238&amp;","&amp;B238&amp;","&amp;C238&amp;","&amp;D238&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"potion","golden_apple_juice",2200289,16);</v>
       </c>
     </row>
@@ -8861,7 +8854,7 @@
         <v>49</v>
       </c>
       <c r="E239" s="4" t="str">
-        <f>"register(event,"&amp;A239&amp;","&amp;B239&amp;","&amp;C239&amp;","&amp;D239&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace",2200292,32);</v>
       </c>
     </row>
@@ -8879,7 +8872,7 @@
         <v>49</v>
       </c>
       <c r="E240" s="4" t="str">
-        <f>"register(event,"&amp;A240&amp;","&amp;B240&amp;","&amp;C240&amp;","&amp;D240&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_2",2200293,32);</v>
       </c>
     </row>
@@ -8897,7 +8890,7 @@
         <v>49</v>
       </c>
       <c r="E241" s="4" t="str">
-        <f>"register(event,"&amp;A241&amp;","&amp;B241&amp;","&amp;C241&amp;","&amp;D241&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_3",2200294,32);</v>
       </c>
     </row>
@@ -8915,7 +8908,7 @@
         <v>49</v>
       </c>
       <c r="E242" s="4" t="str">
-        <f>"register(event,"&amp;A242&amp;","&amp;B242&amp;","&amp;C242&amp;","&amp;D242&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_4",2200295,32);</v>
       </c>
     </row>
@@ -8933,7 +8926,7 @@
         <v>49</v>
       </c>
       <c r="E243" s="4" t="str">
-        <f>"register(event,"&amp;A243&amp;","&amp;B243&amp;","&amp;C243&amp;","&amp;D243&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_5",2200296,32);</v>
       </c>
     </row>
@@ -8951,7 +8944,7 @@
         <v>49</v>
       </c>
       <c r="E244" s="4" t="str">
-        <f>"register(event,"&amp;A244&amp;","&amp;B244&amp;","&amp;C244&amp;","&amp;D244&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_6",2200297,32);</v>
       </c>
     </row>
@@ -8969,7 +8962,7 @@
         <v>49</v>
       </c>
       <c r="E245" s="4" t="str">
-        <f>"register(event,"&amp;A245&amp;","&amp;B245&amp;","&amp;C245&amp;","&amp;D245&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_7",2200298,32);</v>
       </c>
     </row>
@@ -8987,7 +8980,7 @@
         <v>49</v>
       </c>
       <c r="E246" s="4" t="str">
-        <f>"register(event,"&amp;A246&amp;","&amp;B246&amp;","&amp;C246&amp;","&amp;D246&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_8",2200299,32);</v>
       </c>
     </row>
@@ -9005,7 +8998,7 @@
         <v>49</v>
       </c>
       <c r="E247" s="4" t="str">
-        <f>"register(event,"&amp;A247&amp;","&amp;B247&amp;","&amp;C247&amp;","&amp;D247&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_9",2200300,32);</v>
       </c>
     </row>
@@ -9023,7 +9016,7 @@
         <v>49</v>
       </c>
       <c r="E248" s="4" t="str">
-        <f>"register(event,"&amp;A248&amp;","&amp;B248&amp;","&amp;C248&amp;","&amp;D248&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_10",2200301,32);</v>
       </c>
     </row>
@@ -9041,7 +9034,7 @@
         <v>49</v>
       </c>
       <c r="E249" s="4" t="str">
-        <f>"register(event,"&amp;A249&amp;","&amp;B249&amp;","&amp;C249&amp;","&amp;D249&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","enhanced_furnace_11",2200302,32);</v>
       </c>
     </row>
@@ -9059,7 +9052,7 @@
         <v>49</v>
       </c>
       <c r="E250" s="4" t="str">
-        <f>"register(event,"&amp;A250&amp;","&amp;B250&amp;","&amp;C250&amp;","&amp;D250&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","reinforced_furnace",2200303,32);</v>
       </c>
     </row>
@@ -9077,7 +9070,7 @@
         <v>49</v>
       </c>
       <c r="E251" s="4" t="str">
-        <f>"register(event,"&amp;A251&amp;","&amp;B251&amp;","&amp;C251&amp;","&amp;D251&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"furnace","carbonado_edged_furnace",2200304,32);</v>
       </c>
     </row>
@@ -9095,7 +9088,7 @@
         <v>8</v>
       </c>
       <c r="E252" s="4" t="str">
-        <f>"register(event,"&amp;A252&amp;","&amp;B252&amp;","&amp;C252&amp;","&amp;D252&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","electromagnet",2200305,16);</v>
       </c>
     </row>
@@ -9113,7 +9106,7 @@
         <v>8</v>
       </c>
       <c r="E253" s="4" t="str">
-        <f>"register(event,"&amp;A253&amp;","&amp;B253&amp;","&amp;C253&amp;","&amp;D253&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","electric_motor",2200306,16);</v>
       </c>
     </row>
@@ -9131,7 +9124,7 @@
         <v>8</v>
       </c>
       <c r="E254" s="4" t="str">
-        <f>"register(event,"&amp;A254&amp;","&amp;B254&amp;","&amp;C254&amp;","&amp;D254&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"player_head","heating_coil",2200307,16);</v>
       </c>
     </row>
@@ -9149,7 +9142,7 @@
         <v>8</v>
       </c>
       <c r="E255" s="4" t="str">
-        <f>"register(event,"&amp;A255&amp;","&amp;B255&amp;","&amp;C255&amp;","&amp;D255&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"string","copper_wire",2200308,16);</v>
       </c>
     </row>
@@ -9167,7 +9160,7 @@
         <v>49</v>
       </c>
       <c r="E256" s="4" t="str">
-        <f>"register(event,"&amp;A256&amp;","&amp;B256&amp;","&amp;C256&amp;","&amp;D256&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"dispenser","block_placer",2200309,32);</v>
       </c>
     </row>
@@ -9185,7 +9178,7 @@
         <v>8</v>
       </c>
       <c r="E257" s="4" t="str">
-        <f>"register(event,"&amp;A257&amp;","&amp;B257&amp;","&amp;C257&amp;","&amp;D257&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>register(event,"paper","scroll_of_dimensional_teleposition",2200310,16);</v>
       </c>
     </row>
@@ -9203,7 +9196,7 @@
         <v>49</v>
       </c>
       <c r="E258" s="4" t="str">
-        <f>"register(event,"&amp;A258&amp;","&amp;B258&amp;","&amp;C258&amp;","&amp;D258&amp;");"</f>
+        <f t="shared" ref="E258:E321" si="4">"register(event,"&amp;A258&amp;","&amp;B258&amp;","&amp;C258&amp;","&amp;D258&amp;");"</f>
         <v>register(event,"bow","explosive_bow",2200311,32);</v>
       </c>
     </row>
@@ -9221,7 +9214,7 @@
         <v>49</v>
       </c>
       <c r="E259" s="4" t="str">
-        <f>"register(event,"&amp;A259&amp;","&amp;B259&amp;","&amp;C259&amp;","&amp;D259&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"bow","icy_bow",2200312,32);</v>
       </c>
     </row>
@@ -9239,7 +9232,7 @@
         <v>8</v>
       </c>
       <c r="E260" s="4" t="str">
-        <f>"register(event,"&amp;A260&amp;","&amp;B260&amp;","&amp;C260&amp;","&amp;D260&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"enchanted_book","tome_of_knowledge_sharing",2200313,16);</v>
       </c>
     </row>
@@ -9257,7 +9250,7 @@
         <v>8</v>
       </c>
       <c r="E261" s="4" t="str">
-        <f>"register(event,"&amp;A261&amp;","&amp;B261&amp;","&amp;C261&amp;","&amp;D261&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"glass_bottle","flask_of_knowledge",2200314,16);</v>
       </c>
     </row>
@@ -9275,7 +9268,7 @@
         <v>8</v>
       </c>
       <c r="E262" s="4" t="str">
-        <f>"register(event,"&amp;A262&amp;","&amp;B262&amp;","&amp;C262&amp;","&amp;D262&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"paper","reinforced_plate",2200332,16);</v>
       </c>
     </row>
@@ -9293,7 +9286,7 @@
         <v>8</v>
       </c>
       <c r="E263" s="4" t="str">
-        <f>"register(event,"&amp;A263&amp;","&amp;B263&amp;","&amp;C263&amp;","&amp;D263&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","cooling_unit",2200334,16);</v>
       </c>
     </row>
@@ -9311,7 +9304,7 @@
         <v>8</v>
       </c>
       <c r="E264" s="4" t="str">
-        <f>"register(event,"&amp;A264&amp;","&amp;B264&amp;","&amp;C264&amp;","&amp;D264&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","cooler",2200335,16);</v>
       </c>
     </row>
@@ -9329,7 +9322,7 @@
         <v>8</v>
       </c>
       <c r="E265" s="4" t="str">
-        <f>"register(event,"&amp;A265&amp;","&amp;B265&amp;","&amp;C265&amp;","&amp;D265&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"obsidian","wither_proof_obsidian",2200336,16);</v>
       </c>
     </row>
@@ -9347,7 +9340,7 @@
         <v>49</v>
       </c>
       <c r="E266" s="4" t="str">
-        <f>"register(event,"&amp;A266&amp;","&amp;B266&amp;","&amp;C266&amp;","&amp;D266&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"dispenser","ancient_pedestal",2200337,32);</v>
       </c>
     </row>
@@ -9365,7 +9358,7 @@
         <v>8</v>
       </c>
       <c r="E267" s="4" t="str">
-        <f>"register(event,"&amp;A267&amp;","&amp;B267&amp;","&amp;C267&amp;","&amp;D267&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"enchanting_table","ancient_altar",2200338,16);</v>
       </c>
     </row>
@@ -9383,7 +9376,7 @@
         <v>8</v>
       </c>
       <c r="E268" s="4" t="str">
-        <f>"register(event,"&amp;A268&amp;","&amp;B268&amp;","&amp;C268&amp;","&amp;D268&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","energy_regulator",2200339,16);</v>
       </c>
     </row>
@@ -9401,7 +9394,7 @@
         <v>8</v>
       </c>
       <c r="E269" s="4" t="str">
-        <f>"register(event,"&amp;A269&amp;","&amp;B269&amp;","&amp;C269&amp;","&amp;D269&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","duct_tape",2200340,16);</v>
       </c>
     </row>
@@ -9419,7 +9412,7 @@
         <v>8</v>
       </c>
       <c r="E270" s="4" t="str">
-        <f>"register(event,"&amp;A270&amp;","&amp;B270&amp;","&amp;C270&amp;","&amp;D270&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","small_energy_capacitor",2200341,16);</v>
       </c>
     </row>
@@ -9437,7 +9430,7 @@
         <v>8</v>
       </c>
       <c r="E271" s="4" t="str">
-        <f>"register(event,"&amp;A271&amp;","&amp;B271&amp;","&amp;C271&amp;","&amp;D271&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","medium_energy_capacitor",2200342,16);</v>
       </c>
     </row>
@@ -9455,7 +9448,7 @@
         <v>8</v>
       </c>
       <c r="E272" s="4" t="str">
-        <f>"register(event,"&amp;A272&amp;","&amp;B272&amp;","&amp;C272&amp;","&amp;D272&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","big_energy_capacitor",2200343,16);</v>
       </c>
     </row>
@@ -9473,7 +9466,7 @@
         <v>8</v>
       </c>
       <c r="E273" s="4" t="str">
-        <f>"register(event,"&amp;A273&amp;","&amp;B273&amp;","&amp;C273&amp;","&amp;D273&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","large_energy_capacitor",2200344,16);</v>
       </c>
     </row>
@@ -9491,7 +9484,7 @@
         <v>8</v>
       </c>
       <c r="E274" s="4" t="str">
-        <f>"register(event,"&amp;A274&amp;","&amp;B274&amp;","&amp;C274&amp;","&amp;D274&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","carbonado_edged_energy_capacitor",2200345,16);</v>
       </c>
     </row>
@@ -9509,7 +9502,7 @@
         <v>8</v>
       </c>
       <c r="E275" s="4" t="str">
-        <f>"register(event,"&amp;A275&amp;","&amp;B275&amp;","&amp;C275&amp;","&amp;D275&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"daylight_detector","solar_generator",2200346,16);</v>
       </c>
     </row>
@@ -9527,7 +9520,7 @@
         <v>8</v>
       </c>
       <c r="E276" s="4" t="str">
-        <f>"register(event,"&amp;A276&amp;","&amp;B276&amp;","&amp;C276&amp;","&amp;D276&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"daylight_detector","advanced_solar_generator",2200347,16);</v>
       </c>
     </row>
@@ -9545,7 +9538,7 @@
         <v>8</v>
       </c>
       <c r="E277" s="4" t="str">
-        <f>"register(event,"&amp;A277&amp;","&amp;B277&amp;","&amp;C277&amp;","&amp;D277&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"daylight_detector","carbonado_solar_generator",2200348,16);</v>
       </c>
     </row>
@@ -9563,7 +9556,7 @@
         <v>8</v>
       </c>
       <c r="E278" s="4" t="str">
-        <f>"register(event,"&amp;A278&amp;","&amp;B278&amp;","&amp;C278&amp;","&amp;D278&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"daylight_detector","energized_solar_generator",2200349,16);</v>
       </c>
     </row>
@@ -9581,7 +9574,7 @@
         <v>8</v>
       </c>
       <c r="E279" s="4" t="str">
-        <f>"register(event,"&amp;A279&amp;","&amp;B279&amp;","&amp;C279&amp;","&amp;D279&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"crafting_table","charging_bench",2200350,16);</v>
       </c>
     </row>
@@ -9599,7 +9592,7 @@
         <v>8</v>
       </c>
       <c r="E280" s="4" t="str">
-        <f>"register(event,"&amp;A280&amp;","&amp;B280&amp;","&amp;C280&amp;","&amp;D280&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"furnace","electric_furnace_i",2200351,16);</v>
       </c>
     </row>
@@ -9617,7 +9610,7 @@
         <v>8</v>
       </c>
       <c r="E281" s="4" t="str">
-        <f>"register(event,"&amp;A281&amp;","&amp;B281&amp;","&amp;C281&amp;","&amp;D281&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"furnace","electric_furnace_ii",2200352,16);</v>
       </c>
     </row>
@@ -9635,7 +9628,7 @@
         <v>8</v>
       </c>
       <c r="E282" s="4" t="str">
-        <f>"register(event,"&amp;A282&amp;","&amp;B282&amp;","&amp;C282&amp;","&amp;D282&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"furnace","electric_furnace_iii",2200353,16);</v>
       </c>
     </row>
@@ -9653,7 +9646,7 @@
         <v>8</v>
       </c>
       <c r="E283" s="4" t="str">
-        <f>"register(event,"&amp;A283&amp;","&amp;B283&amp;","&amp;C283&amp;","&amp;D283&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"brown_terracotta","electric_gold_pan_i",2200354,16);</v>
       </c>
     </row>
@@ -9671,7 +9664,7 @@
         <v>8</v>
       </c>
       <c r="E284" s="4" t="str">
-        <f>"register(event,"&amp;A284&amp;","&amp;B284&amp;","&amp;C284&amp;","&amp;D284&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"brown_terracotta","electric_gold_pan_ii",2200355,16);</v>
       </c>
     </row>
@@ -9689,7 +9682,7 @@
         <v>8</v>
       </c>
       <c r="E285" s="4" t="str">
-        <f>"register(event,"&amp;A285&amp;","&amp;B285&amp;","&amp;C285&amp;","&amp;D285&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"brown_terracotta","electric_gold_pan_iii",2200356,16);</v>
       </c>
     </row>
@@ -9707,7 +9700,7 @@
         <v>8</v>
       </c>
       <c r="E286" s="4" t="str">
-        <f>"register(event,"&amp;A286&amp;","&amp;B286&amp;","&amp;C286&amp;","&amp;D286&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"red_terracotta","electric_ingot_factory_i",2200360,16);</v>
       </c>
     </row>
@@ -9725,7 +9718,7 @@
         <v>8</v>
       </c>
       <c r="E287" s="4" t="str">
-        <f>"register(event,"&amp;A287&amp;","&amp;B287&amp;","&amp;C287&amp;","&amp;D287&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"red_terracotta","electric_ingot_factory_ii",2200361,16);</v>
       </c>
     </row>
@@ -9743,7 +9736,7 @@
         <v>8</v>
       </c>
       <c r="E288" s="4" t="str">
-        <f>"register(event,"&amp;A288&amp;","&amp;B288&amp;","&amp;C288&amp;","&amp;D288&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"red_terracotta","electric_ingot_factory_iii",2200362,16);</v>
       </c>
     </row>
@@ -9761,7 +9754,7 @@
         <v>8</v>
       </c>
       <c r="E289" s="4" t="str">
-        <f>"register(event,"&amp;A289&amp;","&amp;B289&amp;","&amp;C289&amp;","&amp;D289&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"red_terracotta","electrified_crucible_i",2200363,16);</v>
       </c>
     </row>
@@ -9779,7 +9772,7 @@
         <v>8</v>
       </c>
       <c r="E290" s="4" t="str">
-        <f>"register(event,"&amp;A290&amp;","&amp;B290&amp;","&amp;C290&amp;","&amp;D290&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"red_terracotta","electrified_crucible_ii",2200364,16);</v>
       </c>
     </row>
@@ -9797,7 +9790,7 @@
         <v>8</v>
       </c>
       <c r="E291" s="4" t="str">
-        <f>"register(event,"&amp;A291&amp;","&amp;B291&amp;","&amp;C291&amp;","&amp;D291&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"red_terracotta","electrified_crucible_iii",2200365,16);</v>
       </c>
     </row>
@@ -9815,7 +9808,7 @@
         <v>8</v>
       </c>
       <c r="E292" s="4" t="str">
-        <f>"register(event,"&amp;A292&amp;","&amp;B292&amp;","&amp;C292&amp;","&amp;D292&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"furnace","electric_ore_grinder_i",2200366,16);</v>
       </c>
     </row>
@@ -9833,7 +9826,7 @@
         <v>8</v>
       </c>
       <c r="E293" s="4" t="str">
-        <f>"register(event,"&amp;A293&amp;","&amp;B293&amp;","&amp;C293&amp;","&amp;D293&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"furnace","electric_ore_grinder_ii",2200367,16);</v>
       </c>
     </row>
@@ -9851,7 +9844,7 @@
         <v>8</v>
       </c>
       <c r="E294" s="4" t="str">
-        <f>"register(event,"&amp;A294&amp;","&amp;B294&amp;","&amp;C294&amp;","&amp;D294&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"furnace","electric_ingot_pulverizer",2200370,16);</v>
       </c>
     </row>
@@ -9869,7 +9862,7 @@
         <v>8</v>
       </c>
       <c r="E295" s="4" t="str">
-        <f>"register(event,"&amp;A295&amp;","&amp;B295&amp;","&amp;C295&amp;","&amp;D295&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","coal_generator_i",2200371,16);</v>
       </c>
     </row>
@@ -9887,7 +9880,7 @@
         <v>8</v>
       </c>
       <c r="E296" s="4" t="str">
-        <f>"register(event,"&amp;A296&amp;","&amp;B296&amp;","&amp;C296&amp;","&amp;D296&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","coal_generator_ii",2200372,16);</v>
       </c>
     </row>
@@ -9905,7 +9898,7 @@
         <v>8</v>
       </c>
       <c r="E297" s="4" t="str">
-        <f>"register(event,"&amp;A297&amp;","&amp;B297&amp;","&amp;C297&amp;","&amp;D297&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","electric_press_i",2200376,16);</v>
       </c>
     </row>
@@ -9923,7 +9916,7 @@
         <v>8</v>
       </c>
       <c r="E298" s="4" t="str">
-        <f>"register(event,"&amp;A298&amp;","&amp;B298&amp;","&amp;C298&amp;","&amp;D298&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","electric_press_ii",2200377,16);</v>
       </c>
     </row>
@@ -9941,7 +9934,7 @@
         <v>49</v>
       </c>
       <c r="E299" s="4" t="str">
-        <f>"register(event,"&amp;A299&amp;","&amp;B299&amp;","&amp;C299&amp;","&amp;D299&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"sugar","magnesium_salt",2200378,32);</v>
       </c>
     </row>
@@ -9959,7 +9952,7 @@
         <v>8</v>
       </c>
       <c r="E300" s="4" t="str">
-        <f>"register(event,"&amp;A300&amp;","&amp;B300&amp;","&amp;C300&amp;","&amp;D300&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","magnesium_powered_generator",2200379,16);</v>
       </c>
     </row>
@@ -9977,7 +9970,7 @@
         <v>8</v>
       </c>
       <c r="E301" s="4" t="str">
-        <f>"register(event,"&amp;A301&amp;","&amp;B301&amp;","&amp;C301&amp;","&amp;D301&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"paper","plastic_sheet",2200385,16);</v>
       </c>
     </row>
@@ -9995,7 +9988,7 @@
         <v>8</v>
       </c>
       <c r="E302" s="4" t="str">
-        <f>"register(event,"&amp;A302&amp;","&amp;B302&amp;","&amp;C302&amp;","&amp;D302&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","android_memory_core",2200386,16);</v>
       </c>
     </row>
@@ -10013,7 +10006,7 @@
         <v>8</v>
       </c>
       <c r="E303" s="4" t="str">
-        <f>"register(event,"&amp;A303&amp;","&amp;B303&amp;","&amp;C303&amp;","&amp;D303&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","gps_transmitter",2200387,16);</v>
       </c>
     </row>
@@ -10031,7 +10024,7 @@
         <v>8</v>
       </c>
       <c r="E304" s="4" t="str">
-        <f>"register(event,"&amp;A304&amp;","&amp;B304&amp;","&amp;C304&amp;","&amp;D304&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","gps_transmitter_advanced",2200388,16);</v>
       </c>
     </row>
@@ -10049,7 +10042,7 @@
         <v>8</v>
       </c>
       <c r="E305" s="4" t="str">
-        <f>"register(event,"&amp;A305&amp;","&amp;B305&amp;","&amp;C305&amp;","&amp;D305&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","gps_transmitter_carbonado",2200389,16);</v>
       </c>
     </row>
@@ -10067,7 +10060,7 @@
         <v>8</v>
       </c>
       <c r="E306" s="4" t="str">
-        <f>"register(event,"&amp;A306&amp;","&amp;B306&amp;","&amp;C306&amp;","&amp;D306&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","gps_transmitter_energized",2200390,16);</v>
       </c>
     </row>
@@ -10085,7 +10078,7 @@
         <v>8</v>
       </c>
       <c r="E307" s="4" t="str">
-        <f>"register(event,"&amp;A307&amp;","&amp;B307&amp;","&amp;C307&amp;","&amp;D307&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","gps_control_panel",2200391,16);</v>
       </c>
     </row>
@@ -10103,7 +10096,7 @@
         <v>8</v>
       </c>
       <c r="E308" s="4" t="str">
-        <f>"register(event,"&amp;A308&amp;","&amp;B308&amp;","&amp;C308&amp;","&amp;D308&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"redstone_torch","gps_marker",2200392,16);</v>
       </c>
     </row>
@@ -10121,7 +10114,7 @@
         <v>8</v>
       </c>
       <c r="E309" s="4" t="str">
-        <f>"register(event,"&amp;A309&amp;","&amp;B309&amp;","&amp;C309&amp;","&amp;D309&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"player_head","gps_emergency_transmitter",2200393,16);</v>
       </c>
     </row>
@@ -10139,7 +10132,7 @@
         <v>8</v>
       </c>
       <c r="E310" s="4" t="str">
-        <f>"register(event,"&amp;A310&amp;","&amp;B310&amp;","&amp;C310&amp;","&amp;D310&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","blank_rune",2200409,16);</v>
       </c>
     </row>
@@ -10157,7 +10150,7 @@
         <v>8</v>
       </c>
       <c r="E311" s="4" t="str">
-        <f>"register(event,"&amp;A311&amp;","&amp;B311&amp;","&amp;C311&amp;","&amp;D311&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","ancient_rune_air",2200410,16);</v>
       </c>
     </row>
@@ -10175,7 +10168,7 @@
         <v>8</v>
       </c>
       <c r="E312" s="4" t="str">
-        <f>"register(event,"&amp;A312&amp;","&amp;B312&amp;","&amp;C312&amp;","&amp;D312&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","ancient_rune_earth",2200411,16);</v>
       </c>
     </row>
@@ -10193,7 +10186,7 @@
         <v>8</v>
       </c>
       <c r="E313" s="4" t="str">
-        <f>"register(event,"&amp;A313&amp;","&amp;B313&amp;","&amp;C313&amp;","&amp;D313&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","ancient_rune_fire",2200412,16);</v>
       </c>
     </row>
@@ -10211,7 +10204,7 @@
         <v>8</v>
       </c>
       <c r="E314" s="4" t="str">
-        <f>"register(event,"&amp;A314&amp;","&amp;B314&amp;","&amp;C314&amp;","&amp;D314&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","ancient_rune_water",2200413,16);</v>
       </c>
     </row>
@@ -10229,7 +10222,7 @@
         <v>8</v>
       </c>
       <c r="E315" s="4" t="str">
-        <f>"register(event,"&amp;A315&amp;","&amp;B315&amp;","&amp;C315&amp;","&amp;D315&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","ancient_rune_ender",2200414,16);</v>
       </c>
     </row>
@@ -10247,7 +10240,7 @@
         <v>8</v>
       </c>
       <c r="E316" s="4" t="str">
-        <f>"register(event,"&amp;A316&amp;","&amp;B316&amp;","&amp;C316&amp;","&amp;D316&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","ancient_rune_lightning",2200415,16);</v>
       </c>
     </row>
@@ -10265,7 +10258,7 @@
         <v>8</v>
       </c>
       <c r="E317" s="4" t="str">
-        <f>"register(event,"&amp;A317&amp;","&amp;B317&amp;","&amp;C317&amp;","&amp;D317&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","ancient_rune_rainbow",2200416,16);</v>
       </c>
     </row>
@@ -10283,7 +10276,7 @@
         <v>8</v>
       </c>
       <c r="E318" s="4" t="str">
-        <f>"register(event,"&amp;A318&amp;","&amp;B318&amp;","&amp;C318&amp;","&amp;D318&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","ancient_rune_soulbound",2200417,16);</v>
       </c>
     </row>
@@ -10301,7 +10294,7 @@
         <v>8</v>
       </c>
       <c r="E319" s="4" t="str">
-        <f>"register(event,"&amp;A319&amp;","&amp;B319&amp;","&amp;C319&amp;","&amp;D319&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"firework_star","ancient_rune_enchantment",2200418,16);</v>
       </c>
     </row>
@@ -10319,7 +10312,7 @@
         <v>8</v>
       </c>
       <c r="E320" s="4" t="str">
-        <f>"register(event,"&amp;A320&amp;","&amp;B320&amp;","&amp;C320&amp;","&amp;D320&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"bone_meal","infernal_bonemeal",2200419,16);</v>
       </c>
     </row>
@@ -10337,7 +10330,7 @@
         <v>8</v>
       </c>
       <c r="E321" s="4" t="str">
-        <f>"register(event,"&amp;A321&amp;","&amp;B321&amp;","&amp;C321&amp;","&amp;D321&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>register(event,"feather","elytra_scale",2200420,16);</v>
       </c>
     </row>
@@ -10355,7 +10348,7 @@
         <v>8</v>
       </c>
       <c r="E322" s="4" t="str">
-        <f>"register(event,"&amp;A322&amp;","&amp;B322&amp;","&amp;C322&amp;","&amp;D322&amp;");"</f>
+        <f t="shared" ref="E322:E385" si="5">"register(event,"&amp;A322&amp;","&amp;B322&amp;","&amp;C322&amp;","&amp;D322&amp;");"</f>
         <v>register(event,"elytra","infused_elytra",2200422,16);</v>
       </c>
     </row>
@@ -10373,7 +10366,7 @@
         <v>8</v>
       </c>
       <c r="E323" s="4" t="str">
-        <f>"register(event,"&amp;A323&amp;","&amp;B323&amp;","&amp;C323&amp;","&amp;D323&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"elytra","soulbound_elytra",2200423,16);</v>
       </c>
     </row>
@@ -10391,7 +10384,7 @@
         <v>8</v>
       </c>
       <c r="E324" s="4" t="str">
-        <f>"register(event,"&amp;A324&amp;","&amp;B324&amp;","&amp;C324&amp;","&amp;D324&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","gps_geo_scanner",2200450,16);</v>
       </c>
     </row>
@@ -10409,7 +10402,7 @@
         <v>8</v>
       </c>
       <c r="E325" s="4" t="str">
-        <f>"register(event,"&amp;A325&amp;","&amp;B325&amp;","&amp;C325&amp;","&amp;D325&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","oil_pump",2200452,16);</v>
       </c>
     </row>
@@ -10427,7 +10420,7 @@
         <v>8</v>
       </c>
       <c r="E326" s="4" t="str">
-        <f>"register(event,"&amp;A326&amp;","&amp;B326&amp;","&amp;C326&amp;","&amp;D326&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","geo_miner",2200453,16);</v>
       </c>
     </row>
@@ -10445,7 +10438,7 @@
         <v>49</v>
       </c>
       <c r="E327" s="4" t="str">
-        <f>"register(event,"&amp;A327&amp;","&amp;B327&amp;","&amp;C327&amp;","&amp;D327&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","bucket_of_oil",2200454,32);</v>
       </c>
     </row>
@@ -10463,7 +10456,7 @@
         <v>49</v>
       </c>
       <c r="E328" s="4" t="str">
-        <f>"register(event,"&amp;A328&amp;","&amp;B328&amp;","&amp;C328&amp;","&amp;D328&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","bucket_of_fuel",2200455,32);</v>
       </c>
     </row>
@@ -10481,7 +10474,7 @@
         <v>49</v>
       </c>
       <c r="E329" s="4" t="str">
-        <f>"register(event,"&amp;A329&amp;","&amp;B329&amp;","&amp;C329&amp;","&amp;D329&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","nether_ice",2200456,32);</v>
       </c>
     </row>
@@ -10499,7 +10492,7 @@
         <v>8</v>
       </c>
       <c r="E330" s="4" t="str">
-        <f>"register(event,"&amp;A330&amp;","&amp;B330&amp;","&amp;C330&amp;","&amp;D330&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","lava_generator_i",2200458,16);</v>
       </c>
     </row>
@@ -10517,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="E331" s="4" t="str">
-        <f>"register(event,"&amp;A331&amp;","&amp;B331&amp;","&amp;C331&amp;","&amp;D331&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","lava_generator_ii",2200459,16);</v>
       </c>
     </row>
@@ -10535,7 +10528,7 @@
         <v>8</v>
       </c>
       <c r="E332" s="4" t="str">
-        <f>"register(event,"&amp;A332&amp;","&amp;B332&amp;","&amp;C332&amp;","&amp;D332&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","combustion_reactor",2200460,16);</v>
       </c>
     </row>
@@ -10553,7 +10546,7 @@
         <v>8</v>
       </c>
       <c r="E333" s="4" t="str">
-        <f>"register(event,"&amp;A333&amp;","&amp;B333&amp;","&amp;C333&amp;","&amp;D333&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"purple_stained_glass","teleporter_pylon",2200461,16);</v>
       </c>
     </row>
@@ -10571,7 +10564,7 @@
         <v>8</v>
       </c>
       <c r="E334" s="4" t="str">
-        <f>"register(event,"&amp;A334&amp;","&amp;B334&amp;","&amp;C334&amp;","&amp;D334&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"iron_block","teleporter_matrix",2200462,16);</v>
       </c>
     </row>
@@ -10589,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="E335" s="4" t="str">
-        <f>"register(event,"&amp;A335&amp;","&amp;B335&amp;","&amp;C335&amp;","&amp;D335&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"stone_pressure_plate","gps_activation_device_shared",2200463,16);</v>
       </c>
     </row>
@@ -10607,7 +10600,7 @@
         <v>8</v>
       </c>
       <c r="E336" s="4" t="str">
-        <f>"register(event,"&amp;A336&amp;","&amp;B336&amp;","&amp;C336&amp;","&amp;D336&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"stone_pressure_plate","gps_activation_device_personal",2200464,16);</v>
       </c>
     </row>
@@ -10625,7 +10618,7 @@
         <v>8</v>
       </c>
       <c r="E337" s="4" t="str">
-        <f>"register(event,"&amp;A337&amp;","&amp;B337&amp;","&amp;C337&amp;","&amp;D337&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"hopper","infused_hopper",2200465,16);</v>
       </c>
     </row>
@@ -10643,7 +10636,7 @@
         <v>49</v>
       </c>
       <c r="E338" s="4" t="str">
-        <f>"register(event,"&amp;A338&amp;","&amp;B338&amp;","&amp;C338&amp;","&amp;D338&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"gold_ingot","blistering_ingot_33",2200466,32);</v>
       </c>
     </row>
@@ -10661,7 +10654,7 @@
         <v>49</v>
       </c>
       <c r="E339" s="4" t="str">
-        <f>"register(event,"&amp;A339&amp;","&amp;B339&amp;","&amp;C339&amp;","&amp;D339&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"gold_ingot","blistering_ingot_66",2200467,32);</v>
       </c>
     </row>
@@ -10679,7 +10672,7 @@
         <v>49</v>
       </c>
       <c r="E340" s="4" t="str">
-        <f>"register(event,"&amp;A340&amp;","&amp;B340&amp;","&amp;C340&amp;","&amp;D340&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"gold_ingot","blistering_ingot_100",2200468,32);</v>
       </c>
     </row>
@@ -10697,7 +10690,7 @@
         <v>49</v>
       </c>
       <c r="E341" s="4" t="str">
-        <f>"register(event,"&amp;A341&amp;","&amp;B341&amp;","&amp;C341&amp;","&amp;D341&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","enriched_nether_ice",2200469,32);</v>
       </c>
     </row>
@@ -10715,7 +10708,7 @@
         <v>8</v>
       </c>
       <c r="E342" s="4" t="str">
-        <f>"register(event,"&amp;A342&amp;","&amp;B342&amp;","&amp;C342&amp;","&amp;D342&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"stone_pressure_plate","elevator_plate",2200470,16);</v>
       </c>
     </row>
@@ -10733,7 +10726,7 @@
         <v>8</v>
       </c>
       <c r="E343" s="4" t="str">
-        <f>"register(event,"&amp;A343&amp;","&amp;B343&amp;","&amp;C343&amp;","&amp;D343&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_wheat",2200473,16);</v>
       </c>
     </row>
@@ -10751,7 +10744,7 @@
         <v>8</v>
       </c>
       <c r="E344" s="4" t="str">
-        <f>"register(event,"&amp;A344&amp;","&amp;B344&amp;","&amp;C344&amp;","&amp;D344&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_carrtos",2200474,16);</v>
       </c>
     </row>
@@ -10769,7 +10762,7 @@
         <v>8</v>
       </c>
       <c r="E345" s="4" t="str">
-        <f>"register(event,"&amp;A345&amp;","&amp;B345&amp;","&amp;C345&amp;","&amp;D345&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_potato",2200475,16);</v>
       </c>
     </row>
@@ -10787,7 +10780,7 @@
         <v>8</v>
       </c>
       <c r="E346" s="4" t="str">
-        <f>"register(event,"&amp;A346&amp;","&amp;B346&amp;","&amp;C346&amp;","&amp;D346&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_seeds",2200476,16);</v>
       </c>
     </row>
@@ -10805,7 +10798,7 @@
         <v>8</v>
       </c>
       <c r="E347" s="4" t="str">
-        <f>"register(event,"&amp;A347&amp;","&amp;B347&amp;","&amp;C347&amp;","&amp;D347&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_beetroot",2200477,16);</v>
       </c>
     </row>
@@ -10823,7 +10816,7 @@
         <v>8</v>
       </c>
       <c r="E348" s="4" t="str">
-        <f>"register(event,"&amp;A348&amp;","&amp;B348&amp;","&amp;C348&amp;","&amp;D348&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_melon",2200478,16);</v>
       </c>
     </row>
@@ -10841,7 +10834,7 @@
         <v>8</v>
       </c>
       <c r="E349" s="4" t="str">
-        <f>"register(event,"&amp;A349&amp;","&amp;B349&amp;","&amp;C349&amp;","&amp;D349&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_apple",2200479,16);</v>
       </c>
     </row>
@@ -10859,7 +10852,7 @@
         <v>8</v>
       </c>
       <c r="E350" s="4" t="str">
-        <f>"register(event,"&amp;A350&amp;","&amp;B350&amp;","&amp;C350&amp;","&amp;D350&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_sweet_berries",2200480,16);</v>
       </c>
     </row>
@@ -10877,7 +10870,7 @@
         <v>8</v>
       </c>
       <c r="E351" s="4" t="str">
-        <f>"register(event,"&amp;A351&amp;","&amp;B351&amp;","&amp;C351&amp;","&amp;D351&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_dried_kelp",2200481,16);</v>
       </c>
     </row>
@@ -10895,7 +10888,7 @@
         <v>8</v>
       </c>
       <c r="E352" s="4" t="str">
-        <f>"register(event,"&amp;A352&amp;","&amp;B352&amp;","&amp;C352&amp;","&amp;D352&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_food_cocoa_beans",2200482,16);</v>
       </c>
     </row>
@@ -10913,7 +10906,7 @@
         <v>8</v>
       </c>
       <c r="E353" s="4" t="str">
-        <f>"register(event,"&amp;A353&amp;","&amp;B353&amp;","&amp;C353&amp;","&amp;D353&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"brown_terracotta","tree_growth_accelerator",2200485,16);</v>
       </c>
     </row>
@@ -10931,7 +10924,7 @@
         <v>8</v>
       </c>
       <c r="E354" s="4" t="str">
-        <f>"register(event,"&amp;A354&amp;","&amp;B354&amp;","&amp;C354&amp;","&amp;D354&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","exp_collector",2200486,16);</v>
       </c>
     </row>
@@ -10949,7 +10942,7 @@
         <v>8</v>
       </c>
       <c r="E355" s="4" t="str">
-        <f>"register(event,"&amp;A355&amp;","&amp;B355&amp;","&amp;C355&amp;","&amp;D355&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_wheat",2200489,16);</v>
       </c>
     </row>
@@ -10967,7 +10960,7 @@
         <v>8</v>
       </c>
       <c r="E356" s="4" t="str">
-        <f>"register(event,"&amp;A356&amp;","&amp;B356&amp;","&amp;C356&amp;","&amp;D356&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_carrots",2200490,16);</v>
       </c>
     </row>
@@ -10985,7 +10978,7 @@
         <v>8</v>
       </c>
       <c r="E357" s="4" t="str">
-        <f>"register(event,"&amp;A357&amp;","&amp;B357&amp;","&amp;C357&amp;","&amp;D357&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_potato",2200491,16);</v>
       </c>
     </row>
@@ -11003,7 +10996,7 @@
         <v>8</v>
       </c>
       <c r="E358" s="4" t="str">
-        <f>"register(event,"&amp;A358&amp;","&amp;B358&amp;","&amp;C358&amp;","&amp;D358&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_seeds",2200492,16);</v>
       </c>
     </row>
@@ -11021,7 +11014,7 @@
         <v>8</v>
       </c>
       <c r="E359" s="4" t="str">
-        <f>"register(event,"&amp;A359&amp;","&amp;B359&amp;","&amp;C359&amp;","&amp;D359&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_beetroot",2200493,16);</v>
       </c>
     </row>
@@ -11039,7 +11032,7 @@
         <v>8</v>
       </c>
       <c r="E360" s="4" t="str">
-        <f>"register(event,"&amp;A360&amp;","&amp;B360&amp;","&amp;C360&amp;","&amp;D360&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_melon",2200494,16);</v>
       </c>
     </row>
@@ -11057,7 +11050,7 @@
         <v>8</v>
       </c>
       <c r="E361" s="4" t="str">
-        <f>"register(event,"&amp;A361&amp;","&amp;B361&amp;","&amp;C361&amp;","&amp;D361&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_apple",2200495,16);</v>
       </c>
     </row>
@@ -11075,7 +11068,7 @@
         <v>8</v>
       </c>
       <c r="E362" s="4" t="str">
-        <f>"register(event,"&amp;A362&amp;","&amp;B362&amp;","&amp;C362&amp;","&amp;D362&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_sweet_berries",2200496,16);</v>
       </c>
     </row>
@@ -11093,7 +11086,7 @@
         <v>8</v>
       </c>
       <c r="E363" s="4" t="str">
-        <f>"register(event,"&amp;A363&amp;","&amp;B363&amp;","&amp;C363&amp;","&amp;D363&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_dried_kelp",2200497,16);</v>
       </c>
     </row>
@@ -11111,7 +11104,7 @@
         <v>8</v>
       </c>
       <c r="E364" s="4" t="str">
-        <f>"register(event,"&amp;A364&amp;","&amp;B364&amp;","&amp;C364&amp;","&amp;D364&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","organic_fertilizer_cocoa_beans",2200498,16);</v>
       </c>
     </row>
@@ -11129,7 +11122,7 @@
         <v>8</v>
       </c>
       <c r="E365" s="4" t="str">
-        <f>"register(event,"&amp;A365&amp;","&amp;B365&amp;","&amp;C365&amp;","&amp;D365&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","reactor_coolant_cell",2200503,16);</v>
       </c>
     </row>
@@ -11147,7 +11140,7 @@
         <v>8</v>
       </c>
       <c r="E366" s="4" t="str">
-        <f>"register(event,"&amp;A366&amp;","&amp;B366&amp;","&amp;C366&amp;","&amp;D366&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","nether_ice_coolant_cell",2200504,16);</v>
       </c>
     </row>
@@ -11165,7 +11158,7 @@
         <v>49</v>
       </c>
       <c r="E367" s="4" t="str">
-        <f>"register(event,"&amp;A367&amp;","&amp;B367&amp;","&amp;C367&amp;","&amp;D367&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","neptunium",2200505,32);</v>
       </c>
     </row>
@@ -11183,7 +11176,7 @@
         <v>49</v>
       </c>
       <c r="E368" s="4" t="str">
-        <f>"register(event,"&amp;A368&amp;","&amp;B368&amp;","&amp;C368&amp;","&amp;D368&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","plutonium",2200506,32);</v>
       </c>
     </row>
@@ -11201,7 +11194,7 @@
         <v>49</v>
       </c>
       <c r="E369" s="4" t="str">
-        <f>"register(event,"&amp;A369&amp;","&amp;B369&amp;","&amp;C369&amp;","&amp;D369&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","boosted_uranium",2200507,32);</v>
       </c>
     </row>
@@ -11219,7 +11212,7 @@
         <v>8</v>
       </c>
       <c r="E370" s="4" t="str">
-        <f>"register(event,"&amp;A370&amp;","&amp;B370&amp;","&amp;C370&amp;","&amp;D370&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","nuclear_reactor",2200508,16);</v>
       </c>
     </row>
@@ -11237,7 +11230,7 @@
         <v>8</v>
       </c>
       <c r="E371" s="4" t="str">
-        <f>"register(event,"&amp;A371&amp;","&amp;B371&amp;","&amp;C371&amp;","&amp;D371&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","nether_star_reactor",2200509,16);</v>
       </c>
     </row>
@@ -11255,7 +11248,7 @@
         <v>8</v>
       </c>
       <c r="E372" s="4" t="str">
-        <f>"register(event,"&amp;A372&amp;","&amp;B372&amp;","&amp;C372&amp;","&amp;D372&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","motor",2200510,16);</v>
       </c>
     </row>
@@ -11273,7 +11266,7 @@
         <v>8</v>
       </c>
       <c r="E373" s="4" t="str">
-        <f>"register(event,"&amp;A373&amp;","&amp;B373&amp;","&amp;C373&amp;","&amp;D373&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","manager",2200511,16);</v>
       </c>
     </row>
@@ -11291,7 +11284,7 @@
         <v>8</v>
       </c>
       <c r="E374" s="4" t="str">
-        <f>"register(event,"&amp;A374&amp;","&amp;B374&amp;","&amp;C374&amp;","&amp;D374&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","connector",2200512,16);</v>
       </c>
     </row>
@@ -11309,7 +11302,7 @@
         <v>8</v>
       </c>
       <c r="E375" s="4" t="str">
-        <f>"register(event,"&amp;A375&amp;","&amp;B375&amp;","&amp;C375&amp;","&amp;D375&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","input",2200513,16);</v>
       </c>
     </row>
@@ -11327,7 +11320,7 @@
         <v>8</v>
       </c>
       <c r="E376" s="4" t="str">
-        <f>"register(event,"&amp;A376&amp;","&amp;B376&amp;","&amp;C376&amp;","&amp;D376&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","output",2200514,16);</v>
       </c>
     </row>
@@ -11345,7 +11338,7 @@
         <v>8</v>
       </c>
       <c r="E377" s="4" t="str">
-        <f>"register(event,"&amp;A377&amp;","&amp;B377&amp;","&amp;C377&amp;","&amp;D377&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","output2",2200515,16);</v>
       </c>
     </row>
@@ -11363,7 +11356,7 @@
         <v>8</v>
       </c>
       <c r="E378" s="4" t="str">
-        <f>"register(event,"&amp;A378&amp;","&amp;B378&amp;","&amp;C378&amp;","&amp;D378&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","automated_crafting_chamber",2200516,16);</v>
       </c>
     </row>
@@ -11381,7 +11374,7 @@
         <v>8</v>
       </c>
       <c r="E379" s="4" t="str">
-        <f>"register(event,"&amp;A379&amp;","&amp;B379&amp;","&amp;C379&amp;","&amp;D379&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","reactor_access_port",2200517,16);</v>
       </c>
     </row>
@@ -11399,7 +11392,7 @@
         <v>8</v>
       </c>
       <c r="E380" s="4" t="str">
-        <f>"register(event,"&amp;A380&amp;","&amp;B380&amp;","&amp;C380&amp;","&amp;D380&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","trash",2200519,16);</v>
       </c>
     </row>
@@ -11417,7 +11410,7 @@
         <v>8</v>
       </c>
       <c r="E381" s="4" t="str">
-        <f>"register(event,"&amp;A381&amp;","&amp;B381&amp;","&amp;C381&amp;","&amp;D381&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"furnace","electric_smeltery_i",2200523,16);</v>
       </c>
     </row>
@@ -11435,7 +11428,7 @@
         <v>8</v>
       </c>
       <c r="E382" s="4" t="str">
-        <f>"register(event,"&amp;A382&amp;","&amp;B382&amp;","&amp;C382&amp;","&amp;D382&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"furnace","electric_smeltery_ii",2200524,16);</v>
       </c>
     </row>
@@ -11453,7 +11446,7 @@
         <v>8</v>
       </c>
       <c r="E383" s="4" t="str">
-        <f>"register(event,"&amp;A383&amp;","&amp;B383&amp;","&amp;C383&amp;","&amp;D383&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"player_head","tape_measure",2200527,16);</v>
       </c>
     </row>
@@ -11471,7 +11464,7 @@
         <v>8</v>
       </c>
       <c r="E384" s="4" t="str">
-        <f>"register(event,"&amp;A384&amp;","&amp;B384&amp;","&amp;C384&amp;","&amp;D384&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"furnace","electric_ore_grinder_iii",2200528,16);</v>
       </c>
     </row>
@@ -11489,7 +11482,7 @@
         <v>8</v>
       </c>
       <c r="E385" s="4" t="str">
-        <f>"register(event,"&amp;A385&amp;","&amp;B385&amp;","&amp;C385&amp;","&amp;D385&amp;");"</f>
+        <f t="shared" si="5"/>
         <v>register(event,"emerald","talisman_of_the_caveman",2200529,16);</v>
       </c>
     </row>
@@ -11507,7 +11500,7 @@
         <v>8</v>
       </c>
       <c r="E386" s="4" t="str">
-        <f>"register(event,"&amp;A386&amp;","&amp;B386&amp;","&amp;C386&amp;","&amp;D386&amp;");"</f>
+        <f t="shared" ref="E386:E449" si="6">"register(event,"&amp;A386&amp;","&amp;B386&amp;","&amp;C386&amp;","&amp;D386&amp;");"</f>
         <v>register(event,"emerald","ender_talisman_of_the_caveman",2200530,16);</v>
       </c>
     </row>
@@ -11525,7 +11518,7 @@
         <v>8</v>
       </c>
       <c r="E387" s="4" t="str">
-        <f>"register(event,"&amp;A387&amp;","&amp;B387&amp;","&amp;C387&amp;","&amp;D387&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"emerald","talisman_of_the_wise",2200531,16);</v>
       </c>
     </row>
@@ -11543,7 +11536,7 @@
         <v>8</v>
       </c>
       <c r="E388" s="4" t="str">
-        <f>"register(event,"&amp;A388&amp;","&amp;B388&amp;","&amp;C388&amp;","&amp;D388&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"emerald","ender_talisman_of_the_wise",2200532,16);</v>
       </c>
     </row>
@@ -11561,7 +11554,7 @@
         <v>8</v>
       </c>
       <c r="E389" s="4" t="str">
-        <f>"register(event,"&amp;A389&amp;","&amp;B389&amp;","&amp;C389&amp;","&amp;D389&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"emerald","ender_talisman",2200533,16);</v>
       </c>
     </row>
@@ -11579,7 +11572,7 @@
         <v>8</v>
       </c>
       <c r="E390" s="4" t="str">
-        <f>"register(event,"&amp;A390&amp;","&amp;B390&amp;","&amp;C390&amp;","&amp;D390&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"purple_dye","strange_nether_goo",2200534,16);</v>
       </c>
     </row>
@@ -11597,7 +11590,7 @@
         <v>8</v>
       </c>
       <c r="E391" s="4" t="str">
-        <f>"register(event,"&amp;A391&amp;","&amp;B391&amp;","&amp;C391&amp;","&amp;D391&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","energized_energy_capacitor",2200537,16);</v>
       </c>
     </row>
@@ -11615,7 +11608,7 @@
         <v>8</v>
       </c>
       <c r="E392" s="4" t="str">
-        <f>"register(event,"&amp;A392&amp;","&amp;B392&amp;","&amp;C392&amp;","&amp;D392&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","energy_connector",2200538,16);</v>
       </c>
     </row>
@@ -11633,7 +11626,7 @@
         <v>8</v>
       </c>
       <c r="E393" s="4" t="str">
-        <f>"register(event,"&amp;A393&amp;","&amp;B393&amp;","&amp;C393&amp;","&amp;D393&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","crafting_motor",2200539,16);</v>
       </c>
     </row>
@@ -11651,7 +11644,7 @@
         <v>8</v>
       </c>
       <c r="E394" s="4" t="str">
-        <f>"register(event,"&amp;A394&amp;","&amp;B394&amp;","&amp;C394&amp;","&amp;D394&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","vanilla_auto_crafter",2200540,16);</v>
       </c>
     </row>
@@ -11669,7 +11662,7 @@
         <v>8</v>
       </c>
       <c r="E395" s="4" t="str">
-        <f>"register(event,"&amp;A395&amp;","&amp;B395&amp;","&amp;C395&amp;","&amp;D395&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","enhanced_auto_crafter",2200541,16);</v>
       </c>
     </row>
@@ -11687,7 +11680,7 @@
         <v>8</v>
       </c>
       <c r="E396" s="4" t="str">
-        <f>"register(event,"&amp;A396&amp;","&amp;B396&amp;","&amp;C396&amp;","&amp;D396&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","armor_auto_crafter",2200542,16);</v>
       </c>
     </row>
@@ -11705,7 +11698,7 @@
         <v>8</v>
       </c>
       <c r="E397" s="4" t="str">
-        <f>"register(event,"&amp;A397&amp;","&amp;B397&amp;","&amp;C397&amp;","&amp;D397&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"firework_star","ancient_rune_villagers",2200543,16);</v>
       </c>
     </row>
@@ -11723,7 +11716,7 @@
         <v>8</v>
       </c>
       <c r="E398" s="4" t="str">
-        <f>"register(event,"&amp;A398&amp;","&amp;B398&amp;","&amp;C398&amp;","&amp;D398&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"shulker_shell","synthetic_shulker_shell",2200544,16);</v>
       </c>
     </row>
@@ -11741,7 +11734,7 @@
         <v>8</v>
       </c>
       <c r="E399" s="4" t="str">
-        <f>"register(event,"&amp;A399&amp;","&amp;B399&amp;","&amp;C399&amp;","&amp;D399&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"emerald","talisman_of_the_farmer",2200545,16);</v>
       </c>
     </row>
@@ -11759,7 +11752,7 @@
         <v>8</v>
       </c>
       <c r="E400" s="4" t="str">
-        <f>"register(event,"&amp;A400&amp;","&amp;B400&amp;","&amp;C400&amp;","&amp;D400&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"emerald","ender_talisman_of_the_farmer",2200546,16);</v>
       </c>
     </row>
@@ -11777,7 +11770,7 @@
         <v>8</v>
       </c>
       <c r="E401" s="4" t="str">
-        <f>"register(event,"&amp;A401&amp;","&amp;B401&amp;","&amp;C401&amp;","&amp;D401&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","blackberry_juice",2200830,16);</v>
       </c>
     </row>
@@ -11795,7 +11788,7 @@
         <v>8</v>
       </c>
       <c r="E402" s="4" t="str">
-        <f>"register(event,"&amp;A402&amp;","&amp;B402&amp;","&amp;C402&amp;","&amp;D402&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","blackberry_smoothie",2200831,16);</v>
       </c>
     </row>
@@ -11813,7 +11806,7 @@
         <v>8</v>
       </c>
       <c r="E403" s="4" t="str">
-        <f>"register(event,"&amp;A403&amp;","&amp;B403&amp;","&amp;C403&amp;","&amp;D403&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","blueberry_juice",2200832,16);</v>
       </c>
     </row>
@@ -11831,7 +11824,7 @@
         <v>8</v>
       </c>
       <c r="E404" s="4" t="str">
-        <f>"register(event,"&amp;A404&amp;","&amp;B404&amp;","&amp;C404&amp;","&amp;D404&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","blueberry_smoothie",2200833,16);</v>
       </c>
     </row>
@@ -11849,7 +11842,7 @@
         <v>8</v>
       </c>
       <c r="E405" s="4" t="str">
-        <f>"register(event,"&amp;A405&amp;","&amp;B405&amp;","&amp;C405&amp;","&amp;D405&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","cherry_iced_tea",2200834,16);</v>
       </c>
     </row>
@@ -11867,7 +11860,7 @@
         <v>8</v>
       </c>
       <c r="E406" s="4" t="str">
-        <f>"register(event,"&amp;A406&amp;","&amp;B406&amp;","&amp;C406&amp;","&amp;D406&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","cherry_juice",2200835,16);</v>
       </c>
     </row>
@@ -11885,7 +11878,7 @@
         <v>8</v>
       </c>
       <c r="E407" s="4" t="str">
-        <f>"register(event,"&amp;A407&amp;","&amp;B407&amp;","&amp;C407&amp;","&amp;D407&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","coconut_milk",2200836,16);</v>
       </c>
     </row>
@@ -11903,7 +11896,7 @@
         <v>8</v>
       </c>
       <c r="E408" s="4" t="str">
-        <f>"register(event,"&amp;A408&amp;","&amp;B408&amp;","&amp;C408&amp;","&amp;D408&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","cowberry_juice",2200837,16);</v>
       </c>
     </row>
@@ -11921,7 +11914,7 @@
         <v>8</v>
       </c>
       <c r="E409" s="4" t="str">
-        <f>"register(event,"&amp;A409&amp;","&amp;B409&amp;","&amp;C409&amp;","&amp;D409&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","cowberry_smoothie",2200838,16);</v>
       </c>
     </row>
@@ -11939,7 +11932,7 @@
         <v>8</v>
       </c>
       <c r="E410" s="4" t="str">
-        <f>"register(event,"&amp;A410&amp;","&amp;B410&amp;","&amp;C410&amp;","&amp;D410&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","cranberry_juice",2200839,16);</v>
       </c>
     </row>
@@ -11957,7 +11950,7 @@
         <v>8</v>
       </c>
       <c r="E411" s="4" t="str">
-        <f>"register(event,"&amp;A411&amp;","&amp;B411&amp;","&amp;C411&amp;","&amp;D411&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","cranberry_smoothie",2200840,16);</v>
       </c>
     </row>
@@ -11975,7 +11968,7 @@
         <v>8</v>
       </c>
       <c r="E412" s="4" t="str">
-        <f>"register(event,"&amp;A412&amp;","&amp;B412&amp;","&amp;C412&amp;","&amp;D412&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","dragon_fruit_juice",2200841,16);</v>
       </c>
     </row>
@@ -11993,7 +11986,7 @@
         <v>8</v>
       </c>
       <c r="E413" s="4" t="str">
-        <f>"register(event,"&amp;A413&amp;","&amp;B413&amp;","&amp;C413&amp;","&amp;D413&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","elderberry_juice",2200842,16);</v>
       </c>
     </row>
@@ -12011,7 +12004,7 @@
         <v>8</v>
       </c>
       <c r="E414" s="4" t="str">
-        <f>"register(event,"&amp;A414&amp;","&amp;B414&amp;","&amp;C414&amp;","&amp;D414&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","elderberry_smoothie",2200843,16);</v>
       </c>
     </row>
@@ -12029,7 +12022,7 @@
         <v>8</v>
       </c>
       <c r="E415" s="4" t="str">
-        <f>"register(event,"&amp;A415&amp;","&amp;B415&amp;","&amp;C415&amp;","&amp;D415&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","grape_juice",2200844,16);</v>
       </c>
     </row>
@@ -12047,7 +12040,7 @@
         <v>8</v>
       </c>
       <c r="E416" s="4" t="str">
-        <f>"register(event,"&amp;A416&amp;","&amp;B416&amp;","&amp;C416&amp;","&amp;D416&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","grape_smoothie",2200845,16);</v>
       </c>
     </row>
@@ -12065,7 +12058,7 @@
         <v>8</v>
       </c>
       <c r="E417" s="4" t="str">
-        <f>"register(event,"&amp;A417&amp;","&amp;B417&amp;","&amp;C417&amp;","&amp;D417&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","hot_chocolate",2200846,16);</v>
       </c>
     </row>
@@ -12083,7 +12076,7 @@
         <v>8</v>
       </c>
       <c r="E418" s="4" t="str">
-        <f>"register(event,"&amp;A418&amp;","&amp;B418&amp;","&amp;C418&amp;","&amp;D418&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","lemon_iced_tea",2200847,16);</v>
       </c>
     </row>
@@ -12101,7 +12094,7 @@
         <v>8</v>
       </c>
       <c r="E419" s="4" t="str">
-        <f>"register(event,"&amp;A419&amp;","&amp;B419&amp;","&amp;C419&amp;","&amp;D419&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","lemon_juice",2200848,16);</v>
       </c>
     </row>
@@ -12119,7 +12112,7 @@
         <v>8</v>
       </c>
       <c r="E420" s="4" t="str">
-        <f>"register(event,"&amp;A420&amp;","&amp;B420&amp;","&amp;C420&amp;","&amp;D420&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","lemonade",2200849,16);</v>
       </c>
     </row>
@@ -12137,7 +12130,7 @@
         <v>8</v>
       </c>
       <c r="E421" s="4" t="str">
-        <f>"register(event,"&amp;A421&amp;","&amp;B421&amp;","&amp;C421&amp;","&amp;D421&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","lime_juice",2200850,16);</v>
       </c>
     </row>
@@ -12155,7 +12148,7 @@
         <v>8</v>
       </c>
       <c r="E422" s="4" t="str">
-        <f>"register(event,"&amp;A422&amp;","&amp;B422&amp;","&amp;C422&amp;","&amp;D422&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","lime_smoothie",2200851,16);</v>
       </c>
     </row>
@@ -12173,7 +12166,7 @@
         <v>8</v>
       </c>
       <c r="E423" s="4" t="str">
-        <f>"register(event,"&amp;A423&amp;","&amp;B423&amp;","&amp;C423&amp;","&amp;D423&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","oak_apple_juice",2200852,16);</v>
       </c>
     </row>
@@ -12191,7 +12184,7 @@
         <v>8</v>
       </c>
       <c r="E424" s="4" t="str">
-        <f>"register(event,"&amp;A424&amp;","&amp;B424&amp;","&amp;C424&amp;","&amp;D424&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","orange_juice",2200853,16);</v>
       </c>
     </row>
@@ -12209,7 +12202,7 @@
         <v>8</v>
       </c>
       <c r="E425" s="4" t="str">
-        <f>"register(event,"&amp;A425&amp;","&amp;B425&amp;","&amp;C425&amp;","&amp;D425&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","peach_iced_tea",2200854,16);</v>
       </c>
     </row>
@@ -12227,7 +12220,7 @@
         <v>8</v>
       </c>
       <c r="E426" s="4" t="str">
-        <f>"register(event,"&amp;A426&amp;","&amp;B426&amp;","&amp;C426&amp;","&amp;D426&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","peach_juice",2200855,16);</v>
       </c>
     </row>
@@ -12245,7 +12238,7 @@
         <v>8</v>
       </c>
       <c r="E427" s="4" t="str">
-        <f>"register(event,"&amp;A427&amp;","&amp;B427&amp;","&amp;C427&amp;","&amp;D427&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","pear_juice",2200856,16);</v>
       </c>
     </row>
@@ -12263,7 +12256,7 @@
         <v>8</v>
       </c>
       <c r="E428" s="4" t="str">
-        <f>"register(event,"&amp;A428&amp;","&amp;B428&amp;","&amp;C428&amp;","&amp;D428&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","pinacolada",2200857,16);</v>
       </c>
     </row>
@@ -12281,7 +12274,7 @@
         <v>8</v>
       </c>
       <c r="E429" s="4" t="str">
-        <f>"register(event,"&amp;A429&amp;","&amp;B429&amp;","&amp;C429&amp;","&amp;D429&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","pineapple_juice",2200858,16);</v>
       </c>
     </row>
@@ -12299,7 +12292,7 @@
         <v>8</v>
       </c>
       <c r="E430" s="4" t="str">
-        <f>"register(event,"&amp;A430&amp;","&amp;B430&amp;","&amp;C430&amp;","&amp;D430&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","pineapple_smoothie",2200859,16);</v>
       </c>
     </row>
@@ -12317,7 +12310,7 @@
         <v>8</v>
       </c>
       <c r="E431" s="4" t="str">
-        <f>"register(event,"&amp;A431&amp;","&amp;B431&amp;","&amp;C431&amp;","&amp;D431&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","plum_juice",2200860,16);</v>
       </c>
     </row>
@@ -12335,7 +12328,7 @@
         <v>8</v>
       </c>
       <c r="E432" s="4" t="str">
-        <f>"register(event,"&amp;A432&amp;","&amp;B432&amp;","&amp;C432&amp;","&amp;D432&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","pomegranate_juice",2200861,16);</v>
       </c>
     </row>
@@ -12353,7 +12346,7 @@
         <v>8</v>
       </c>
       <c r="E433" s="4" t="str">
-        <f>"register(event,"&amp;A433&amp;","&amp;B433&amp;","&amp;C433&amp;","&amp;D433&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","raspberry_iced_tea",2200862,16);</v>
       </c>
     </row>
@@ -12371,7 +12364,7 @@
         <v>8</v>
       </c>
       <c r="E434" s="4" t="str">
-        <f>"register(event,"&amp;A434&amp;","&amp;B434&amp;","&amp;C434&amp;","&amp;D434&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","raspberry_juice",2200863,16);</v>
       </c>
     </row>
@@ -12389,7 +12382,7 @@
         <v>8</v>
       </c>
       <c r="E435" s="4" t="str">
-        <f>"register(event,"&amp;A435&amp;","&amp;B435&amp;","&amp;C435&amp;","&amp;D435&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","raspberry_smoothie",2200864,16);</v>
       </c>
     </row>
@@ -12407,7 +12400,7 @@
         <v>8</v>
       </c>
       <c r="E436" s="4" t="str">
-        <f>"register(event,"&amp;A436&amp;","&amp;B436&amp;","&amp;C436&amp;","&amp;D436&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","strawberry_iced_tea",2200865,16);</v>
       </c>
     </row>
@@ -12425,7 +12418,7 @@
         <v>8</v>
       </c>
       <c r="E437" s="4" t="str">
-        <f>"register(event,"&amp;A437&amp;","&amp;B437&amp;","&amp;C437&amp;","&amp;D437&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","strawberry_juice",2200866,16);</v>
       </c>
     </row>
@@ -12443,7 +12436,7 @@
         <v>8</v>
       </c>
       <c r="E438" s="4" t="str">
-        <f>"register(event,"&amp;A438&amp;","&amp;B438&amp;","&amp;C438&amp;","&amp;D438&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","strawberry_smoothie",2200867,16);</v>
       </c>
     </row>
@@ -12461,7 +12454,7 @@
         <v>8</v>
       </c>
       <c r="E439" s="4" t="str">
-        <f>"register(event,"&amp;A439&amp;","&amp;B439&amp;","&amp;C439&amp;","&amp;D439&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","sweetened_tea",2200868,16);</v>
       </c>
     </row>
@@ -12479,7 +12472,7 @@
         <v>8</v>
       </c>
       <c r="E440" s="4" t="str">
-        <f>"register(event,"&amp;A440&amp;","&amp;B440&amp;","&amp;C440&amp;","&amp;D440&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","thai_tea",2200869,16);</v>
       </c>
     </row>
@@ -12497,7 +12490,7 @@
         <v>8</v>
       </c>
       <c r="E441" s="4" t="str">
-        <f>"register(event,"&amp;A441&amp;","&amp;B441&amp;","&amp;C441&amp;","&amp;D441&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","tomato_juice",2200870,16);</v>
       </c>
     </row>
@@ -12515,7 +12508,7 @@
         <v>8</v>
       </c>
       <c r="E442" s="4" t="str">
-        <f>"register(event,"&amp;A442&amp;","&amp;B442&amp;","&amp;C442&amp;","&amp;D442&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"potion","wine",2200871,16);</v>
       </c>
     </row>
@@ -12533,7 +12526,7 @@
         <v>8</v>
       </c>
       <c r="E443" s="4" t="str">
-        <f>"register(event,"&amp;A443&amp;","&amp;B443&amp;","&amp;C443&amp;","&amp;D443&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","apple_pear_cake",2200872,16);</v>
       </c>
     </row>
@@ -12551,7 +12544,7 @@
         <v>8</v>
       </c>
       <c r="E444" s="4" t="str">
-        <f>"register(event,"&amp;A444&amp;","&amp;B444&amp;","&amp;C444&amp;","&amp;D444&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","oak_apple_pie",2200873,16);</v>
       </c>
     </row>
@@ -12569,7 +12562,7 @@
         <v>8</v>
       </c>
       <c r="E445" s="4" t="str">
-        <f>"register(event,"&amp;A445&amp;","&amp;B445&amp;","&amp;C445&amp;","&amp;D445&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","bacon",2200874,16);</v>
       </c>
     </row>
@@ -12587,7 +12580,7 @@
         <v>8</v>
       </c>
       <c r="E446" s="4" t="str">
-        <f>"register(event,"&amp;A446&amp;","&amp;B446&amp;","&amp;C446&amp;","&amp;D446&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","bacon_burger",2200875,16);</v>
       </c>
     </row>
@@ -12605,7 +12598,7 @@
         <v>8</v>
       </c>
       <c r="E447" s="4" t="str">
-        <f>"register(event,"&amp;A447&amp;","&amp;B447&amp;","&amp;C447&amp;","&amp;D447&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","bacon_cheeseburger",2200876,16);</v>
       </c>
     </row>
@@ -12623,7 +12616,7 @@
         <v>8</v>
       </c>
       <c r="E448" s="4" t="str">
-        <f>"register(event,"&amp;A448&amp;","&amp;B448&amp;","&amp;C448&amp;","&amp;D448&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","bacon_sandwich",2200877,16);</v>
       </c>
     </row>
@@ -12641,7 +12634,7 @@
         <v>8</v>
       </c>
       <c r="E449" s="4" t="str">
-        <f>"register(event,"&amp;A449&amp;","&amp;B449&amp;","&amp;C449&amp;","&amp;D449&amp;");"</f>
+        <f t="shared" si="6"/>
         <v>register(event,"player_head","bagel",2200878,16);</v>
       </c>
     </row>
@@ -12659,7 +12652,7 @@
         <v>8</v>
       </c>
       <c r="E450" s="4" t="str">
-        <f>"register(event,"&amp;A450&amp;","&amp;B450&amp;","&amp;C450&amp;","&amp;D450&amp;");"</f>
+        <f t="shared" ref="E450:E513" si="7">"register(event,"&amp;A450&amp;","&amp;B450&amp;","&amp;C450&amp;","&amp;D450&amp;");"</f>
         <v>register(event,"player_head","biscuit",2200879,16);</v>
       </c>
     </row>
@@ -12677,7 +12670,7 @@
         <v>8</v>
       </c>
       <c r="E451" s="4" t="str">
-        <f>"register(event,"&amp;A451&amp;","&amp;B451&amp;","&amp;C451&amp;","&amp;D451&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","biscuits_and_country_gravy",2200880,16);</v>
       </c>
     </row>
@@ -12695,7 +12688,7 @@
         <v>8</v>
       </c>
       <c r="E452" s="4" t="str">
-        <f>"register(event,"&amp;A452&amp;","&amp;B452&amp;","&amp;C452&amp;","&amp;D452&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","blackberry_cobbler",2200881,16);</v>
       </c>
     </row>
@@ -12713,7 +12706,7 @@
         <v>8</v>
       </c>
       <c r="E453" s="4" t="str">
-        <f>"register(event,"&amp;A453&amp;","&amp;B453&amp;","&amp;C453&amp;","&amp;D453&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","blackberry_jelly_sandwich",2200882,16);</v>
       </c>
     </row>
@@ -12731,7 +12724,7 @@
         <v>8</v>
       </c>
       <c r="E454" s="4" t="str">
-        <f>"register(event,"&amp;A454&amp;","&amp;B454&amp;","&amp;C454&amp;","&amp;D454&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"iron_pickaxe","climbing_pick",2200882,16);</v>
       </c>
     </row>
@@ -12749,7 +12742,7 @@
         <v>8</v>
       </c>
       <c r="E455" s="4" t="str">
-        <f>"register(event,"&amp;A455&amp;","&amp;B455&amp;","&amp;C455&amp;","&amp;D455&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","blackberry_pie",2200883,16);</v>
       </c>
     </row>
@@ -12767,7 +12760,7 @@
         <v>8</v>
       </c>
       <c r="E456" s="4" t="str">
-        <f>"register(event,"&amp;A456&amp;","&amp;B456&amp;","&amp;C456&amp;","&amp;D456&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","blt",2200884,16);</v>
       </c>
     </row>
@@ -12785,7 +12778,7 @@
         <v>8</v>
       </c>
       <c r="E457" s="4" t="str">
-        <f>"register(event,"&amp;A457&amp;","&amp;B457&amp;","&amp;C457&amp;","&amp;D457&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","blueberry_cheesecake",2200885,16);</v>
       </c>
     </row>
@@ -12803,7 +12796,7 @@
         <v>8</v>
       </c>
       <c r="E458" s="4" t="str">
-        <f>"register(event,"&amp;A458&amp;","&amp;B458&amp;","&amp;C458&amp;","&amp;D458&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","blueberry_jelly_sandwich",2200886,16);</v>
       </c>
     </row>
@@ -12821,7 +12814,7 @@
         <v>8</v>
       </c>
       <c r="E459" s="4" t="str">
-        <f>"register(event,"&amp;A459&amp;","&amp;B459&amp;","&amp;C459&amp;","&amp;D459&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","blueberry_muffin",2200887,16);</v>
       </c>
     </row>
@@ -12839,7 +12832,7 @@
         <v>8</v>
       </c>
       <c r="E460" s="4" t="str">
-        <f>"register(event,"&amp;A460&amp;","&amp;B460&amp;","&amp;C460&amp;","&amp;D460&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","blueberry_pancakes",2200888,16);</v>
       </c>
     </row>
@@ -12857,7 +12850,7 @@
         <v>8</v>
       </c>
       <c r="E461" s="4" t="str">
-        <f>"register(event,"&amp;A461&amp;","&amp;B461&amp;","&amp;C461&amp;","&amp;D461&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","blueberry_pie",2200889,16);</v>
       </c>
     </row>
@@ -12875,7 +12868,7 @@
         <v>8</v>
       </c>
       <c r="E462" s="4" t="str">
-        <f>"register(event,"&amp;A462&amp;","&amp;B462&amp;","&amp;C462&amp;","&amp;D462&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","boston_cream_pie",2200890,16);</v>
       </c>
     </row>
@@ -12893,7 +12886,7 @@
         <v>8</v>
       </c>
       <c r="E463" s="4" t="str">
-        <f>"register(event,"&amp;A463&amp;","&amp;B463&amp;","&amp;C463&amp;","&amp;D463&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","burrito",2200891,16);</v>
       </c>
     </row>
@@ -12911,7 +12904,7 @@
         <v>8</v>
       </c>
       <c r="E464" s="4" t="str">
-        <f>"register(event,"&amp;A464&amp;","&amp;B464&amp;","&amp;C464&amp;","&amp;D464&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","carrot_cake",2200892,16);</v>
       </c>
     </row>
@@ -12929,7 +12922,7 @@
         <v>8</v>
       </c>
       <c r="E465" s="4" t="str">
-        <f>"register(event,"&amp;A465&amp;","&amp;B465&amp;","&amp;C465&amp;","&amp;D465&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","cheeseburger",2200893,16);</v>
       </c>
     </row>
@@ -12947,7 +12940,7 @@
         <v>8</v>
       </c>
       <c r="E466" s="4" t="str">
-        <f>"register(event,"&amp;A466&amp;","&amp;B466&amp;","&amp;C466&amp;","&amp;D466&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","cheesecake",2200894,16);</v>
       </c>
     </row>
@@ -12965,7 +12958,7 @@
         <v>8</v>
       </c>
       <c r="E467" s="4" t="str">
-        <f>"register(event,"&amp;A467&amp;","&amp;B467&amp;","&amp;C467&amp;","&amp;D467&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","cherry_cheesecake",2200895,16);</v>
       </c>
     </row>
@@ -12983,7 +12976,7 @@
         <v>8</v>
       </c>
       <c r="E468" s="4" t="str">
-        <f>"register(event,"&amp;A468&amp;","&amp;B468&amp;","&amp;C468&amp;","&amp;D468&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","cherry_pie",2200896,16);</v>
       </c>
     </row>
@@ -13001,7 +12994,7 @@
         <v>8</v>
       </c>
       <c r="E469" s="4" t="str">
-        <f>"register(event,"&amp;A469&amp;","&amp;B469&amp;","&amp;C469&amp;","&amp;D469&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chicken_burrito",2200897,16);</v>
       </c>
     </row>
@@ -13019,7 +13012,7 @@
         <v>8</v>
       </c>
       <c r="E470" s="4" t="str">
-        <f>"register(event,"&amp;A470&amp;","&amp;B470&amp;","&amp;C470&amp;","&amp;D470&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chicken_cheeseburger",2200898,16);</v>
       </c>
     </row>
@@ -13037,7 +13030,7 @@
         <v>8</v>
       </c>
       <c r="E471" s="4" t="str">
-        <f>"register(event,"&amp;A471&amp;","&amp;B471&amp;","&amp;C471&amp;","&amp;D471&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chicken_curry",2200899,16);</v>
       </c>
     </row>
@@ -13055,7 +13048,7 @@
         <v>8</v>
       </c>
       <c r="E472" s="4" t="str">
-        <f>"register(event,"&amp;A472&amp;","&amp;B472&amp;","&amp;C472&amp;","&amp;D472&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chicken_pot_pie",2200900,16);</v>
       </c>
     </row>
@@ -13073,7 +13066,7 @@
         <v>8</v>
       </c>
       <c r="E473" s="4" t="str">
-        <f>"register(event,"&amp;A473&amp;","&amp;B473&amp;","&amp;C473&amp;","&amp;D473&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chicken_sandwich",2200901,16);</v>
       </c>
     </row>
@@ -13091,7 +13084,7 @@
         <v>8</v>
       </c>
       <c r="E474" s="4" t="str">
-        <f>"register(event,"&amp;A474&amp;","&amp;B474&amp;","&amp;C474&amp;","&amp;D474&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chicken_burger",2200902,16);</v>
       </c>
     </row>
@@ -13109,7 +13102,7 @@
         <v>8</v>
       </c>
       <c r="E475" s="4" t="str">
-        <f>"register(event,"&amp;A475&amp;","&amp;B475&amp;","&amp;C475&amp;","&amp;D475&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chocolate_bar",2200903,16);</v>
       </c>
     </row>
@@ -13127,7 +13120,7 @@
         <v>8</v>
       </c>
       <c r="E476" s="4" t="str">
-        <f>"register(event,"&amp;A476&amp;","&amp;B476&amp;","&amp;C476&amp;","&amp;D476&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chocolate_cake",2200904,16);</v>
       </c>
     </row>
@@ -13145,7 +13138,7 @@
         <v>8</v>
       </c>
       <c r="E477" s="4" t="str">
-        <f>"register(event,"&amp;A477&amp;","&amp;B477&amp;","&amp;C477&amp;","&amp;D477&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chocolate_chip_muffin",2200905,16);</v>
       </c>
     </row>
@@ -13163,7 +13156,7 @@
         <v>8</v>
       </c>
       <c r="E478" s="4" t="str">
-        <f>"register(event,"&amp;A478&amp;","&amp;B478&amp;","&amp;C478&amp;","&amp;D478&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chocolate_pear_cake",2200906,16);</v>
       </c>
     </row>
@@ -13181,7 +13174,7 @@
         <v>8</v>
       </c>
       <c r="E479" s="4" t="str">
-        <f>"register(event,"&amp;A479&amp;","&amp;B479&amp;","&amp;C479&amp;","&amp;D479&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","chocolate_strawberry",2200907,16);</v>
       </c>
     </row>
@@ -13199,7 +13192,7 @@
         <v>8</v>
       </c>
       <c r="E480" s="4" t="str">
-        <f>"register(event,"&amp;A480&amp;","&amp;B480&amp;","&amp;C480&amp;","&amp;D480&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","club_sandwich",2200908,16);</v>
       </c>
     </row>
@@ -13217,7 +13210,7 @@
         <v>8</v>
       </c>
       <c r="E481" s="4" t="str">
-        <f>"register(event,"&amp;A481&amp;","&amp;B481&amp;","&amp;C481&amp;","&amp;D481&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","coconut_chicken_curry",2200909,16);</v>
       </c>
     </row>
@@ -13235,7 +13228,7 @@
         <v>8</v>
       </c>
       <c r="E482" s="4" t="str">
-        <f>"register(event,"&amp;A482&amp;","&amp;B482&amp;","&amp;C482&amp;","&amp;D482&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"golden_carrot","corn_on_the_cob",2200910,16);</v>
       </c>
     </row>
@@ -13253,7 +13246,7 @@
         <v>8</v>
       </c>
       <c r="E483" s="4" t="str">
-        <f>"register(event,"&amp;A483&amp;","&amp;B483&amp;","&amp;C483&amp;","&amp;D483&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","cowberry_jelly_sandwich",2200911,16);</v>
       </c>
     </row>
@@ -13271,7 +13264,7 @@
         <v>8</v>
       </c>
       <c r="E484" s="4" t="str">
-        <f>"register(event,"&amp;A484&amp;","&amp;B484&amp;","&amp;C484&amp;","&amp;D484&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","cowberry_pie",2200912,16);</v>
       </c>
     </row>
@@ -13289,7 +13282,7 @@
         <v>8</v>
       </c>
       <c r="E485" s="4" t="str">
-        <f>"register(event,"&amp;A485&amp;","&amp;B485&amp;","&amp;C485&amp;","&amp;D485&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","cranberry_jelly_sandwich",2200913,16);</v>
       </c>
     </row>
@@ -13307,7 +13300,7 @@
         <v>8</v>
       </c>
       <c r="E486" s="4" t="str">
-        <f>"register(event,"&amp;A486&amp;","&amp;B486&amp;","&amp;C486&amp;","&amp;D486&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","cranberry_pie",2200914,16);</v>
       </c>
     </row>
@@ -13325,7 +13318,7 @@
         <v>8</v>
       </c>
       <c r="E487" s="4" t="str">
-        <f>"register(event,"&amp;A487&amp;","&amp;B487&amp;","&amp;C487&amp;","&amp;D487&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","cream_cookie",2200915,16);</v>
       </c>
     </row>
@@ -13343,7 +13336,7 @@
         <v>8</v>
       </c>
       <c r="E488" s="4" t="str">
-        <f>"register(event,"&amp;A488&amp;","&amp;B488&amp;","&amp;C488&amp;","&amp;D488&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","creamed_corn",2200916,16);</v>
       </c>
     </row>
@@ -13361,7 +13354,7 @@
         <v>8</v>
       </c>
       <c r="E489" s="4" t="str">
-        <f>"register(event,"&amp;A489&amp;","&amp;B489&amp;","&amp;C489&amp;","&amp;D489&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","deluxe_cheeseburger",2200917,16);</v>
       </c>
     </row>
@@ -13379,7 +13372,7 @@
         <v>8</v>
       </c>
       <c r="E490" s="4" t="str">
-        <f>"register(event,"&amp;A490&amp;","&amp;B490&amp;","&amp;C490&amp;","&amp;D490&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","dragon_fruit_pie",2200918,16);</v>
       </c>
     </row>
@@ -13397,7 +13390,7 @@
         <v>8</v>
       </c>
       <c r="E491" s="4" t="str">
-        <f>"register(event,"&amp;A491&amp;","&amp;B491&amp;","&amp;C491&amp;","&amp;D491&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","egg_salad",2200919,16);</v>
       </c>
     </row>
@@ -13415,7 +13408,7 @@
         <v>8</v>
       </c>
       <c r="E492" s="4" t="str">
-        <f>"register(event,"&amp;A492&amp;","&amp;B492&amp;","&amp;C492&amp;","&amp;D492&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","elderberry_pie",2200921,16);</v>
       </c>
     </row>
@@ -13433,7 +13426,7 @@
         <v>8</v>
       </c>
       <c r="E493" s="4" t="str">
-        <f>"register(event,"&amp;A493&amp;","&amp;B493&amp;","&amp;C493&amp;","&amp;D493&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","fish_sandwich",2200922,16);</v>
       </c>
     </row>
@@ -13451,7 +13444,7 @@
         <v>8</v>
       </c>
       <c r="E494" s="4" t="str">
-        <f>"register(event,"&amp;A494&amp;","&amp;B494&amp;","&amp;C494&amp;","&amp;D494&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","fish_taco",2200923,16);</v>
       </c>
     </row>
@@ -13469,7 +13462,7 @@
         <v>8</v>
       </c>
       <c r="E495" s="4" t="str">
-        <f>"register(event,"&amp;A495&amp;","&amp;B495&amp;","&amp;C495&amp;","&amp;D495&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","fries",2200924,16);</v>
       </c>
     </row>
@@ -13487,7 +13480,7 @@
         <v>8</v>
       </c>
       <c r="E496" s="4" t="str">
-        <f>"register(event,"&amp;A496&amp;","&amp;B496&amp;","&amp;C496&amp;","&amp;D496&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","garlic_bread",2200925,16);</v>
       </c>
     </row>
@@ -13505,7 +13498,7 @@
         <v>8</v>
       </c>
       <c r="E497" s="4" t="str">
-        <f>"register(event,"&amp;A497&amp;","&amp;B497&amp;","&amp;C497&amp;","&amp;D497&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","garlic_cheese_bread",2200926,16);</v>
       </c>
     </row>
@@ -13523,7 +13516,7 @@
         <v>8</v>
       </c>
       <c r="E498" s="4" t="str">
-        <f>"register(event,"&amp;A498&amp;","&amp;B498&amp;","&amp;C498&amp;","&amp;D498&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","grape_jelly_sandwich",2200927,16);</v>
       </c>
     </row>
@@ -13541,7 +13534,7 @@
         <v>8</v>
       </c>
       <c r="E499" s="4" t="str">
-        <f>"register(event,"&amp;A499&amp;","&amp;B499&amp;","&amp;C499&amp;","&amp;D499&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","grape_pie",2200928,16);</v>
       </c>
     </row>
@@ -13559,7 +13552,7 @@
         <v>8</v>
       </c>
       <c r="E500" s="4" t="str">
-        <f>"register(event,"&amp;A500&amp;","&amp;B500&amp;","&amp;C500&amp;","&amp;D500&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","grape_salad",2200929,16);</v>
       </c>
     </row>
@@ -13577,7 +13570,7 @@
         <v>8</v>
       </c>
       <c r="E501" s="4" t="str">
-        <f>"register(event,"&amp;A501&amp;","&amp;B501&amp;","&amp;C501&amp;","&amp;D501&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","grilled_sandwich",2200930,16);</v>
       </c>
     </row>
@@ -13595,7 +13588,7 @@
         <v>8</v>
       </c>
       <c r="E502" s="4" t="str">
-        <f>"register(event,"&amp;A502&amp;","&amp;B502&amp;","&amp;C502&amp;","&amp;D502&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","hamburger",2200931,16);</v>
       </c>
     </row>
@@ -13613,7 +13606,7 @@
         <v>8</v>
       </c>
       <c r="E503" s="4" t="str">
-        <f>"register(event,"&amp;A503&amp;","&amp;B503&amp;","&amp;C503&amp;","&amp;D503&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","hot_dog",2200932,16);</v>
       </c>
     </row>
@@ -13631,7 +13624,7 @@
         <v>8</v>
       </c>
       <c r="E504" s="4" t="str">
-        <f>"register(event,"&amp;A504&amp;","&amp;B504&amp;","&amp;C504&amp;","&amp;D504&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","bacon_wrapped_cheese_filled_hot_dog",2200933,16);</v>
       </c>
     </row>
@@ -13649,7 +13642,7 @@
         <v>8</v>
       </c>
       <c r="E505" s="4" t="str">
-        <f>"register(event,"&amp;A505&amp;","&amp;B505&amp;","&amp;C505&amp;","&amp;D505&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","bbq_bacon_wrapped_hot_dog",2200934,16);</v>
       </c>
     </row>
@@ -13667,7 +13660,7 @@
         <v>8</v>
       </c>
       <c r="E506" s="4" t="str">
-        <f>"register(event,"&amp;A506&amp;","&amp;B506&amp;","&amp;C506&amp;","&amp;D506&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","bbq_double_bacon_wrapped_hot_dog_in_a_tortilla_with_cheese",2200935,16);</v>
       </c>
     </row>
@@ -13685,7 +13678,7 @@
         <v>8</v>
       </c>
       <c r="E507" s="4" t="str">
-        <f>"register(event,"&amp;A507&amp;","&amp;B507&amp;","&amp;C507&amp;","&amp;D507&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","ice_cream",2200936,16);</v>
       </c>
     </row>
@@ -13703,7 +13696,7 @@
         <v>8</v>
       </c>
       <c r="E508" s="4" t="str">
-        <f>"register(event,"&amp;A508&amp;","&amp;B508&amp;","&amp;C508&amp;","&amp;D508&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","jammy_dodger",2200937,16);</v>
       </c>
     </row>
@@ -13721,7 +13714,7 @@
         <v>8</v>
       </c>
       <c r="E509" s="4" t="str">
-        <f>"register(event,"&amp;A509&amp;","&amp;B509&amp;","&amp;C509&amp;","&amp;D509&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","lamington",2200938,16);</v>
       </c>
     </row>
@@ -13739,7 +13732,7 @@
         <v>8</v>
       </c>
       <c r="E510" s="4" t="str">
-        <f>"register(event,"&amp;A510&amp;","&amp;B510&amp;","&amp;C510&amp;","&amp;D510&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","lasagna",2200939,16);</v>
       </c>
     </row>
@@ -13757,7 +13750,7 @@
         <v>8</v>
       </c>
       <c r="E511" s="4" t="str">
-        <f>"register(event,"&amp;A511&amp;","&amp;B511&amp;","&amp;C511&amp;","&amp;D511&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","leafy_chicken_sandwich",2200940,16);</v>
       </c>
     </row>
@@ -13775,7 +13768,7 @@
         <v>8</v>
       </c>
       <c r="E512" s="4" t="str">
-        <f>"register(event,"&amp;A512&amp;","&amp;B512&amp;","&amp;C512&amp;","&amp;D512&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","leafy_fish_sandwich",2200941,16);</v>
       </c>
     </row>
@@ -13793,7 +13786,7 @@
         <v>8</v>
       </c>
       <c r="E513" s="4" t="str">
-        <f>"register(event,"&amp;A513&amp;","&amp;B513&amp;","&amp;C513&amp;","&amp;D513&amp;");"</f>
+        <f t="shared" si="7"/>
         <v>register(event,"player_head","lemon_pie",2200942,16);</v>
       </c>
     </row>
@@ -13811,7 +13804,7 @@
         <v>8</v>
       </c>
       <c r="E514" s="4" t="str">
-        <f>"register(event,"&amp;A514&amp;","&amp;B514&amp;","&amp;C514&amp;","&amp;D514&amp;");"</f>
+        <f t="shared" ref="E514:E548" si="8">"register(event,"&amp;A514&amp;","&amp;B514&amp;","&amp;C514&amp;","&amp;D514&amp;");"</f>
         <v>register(event,"player_head","lime_pie",2200943,16);</v>
       </c>
     </row>
@@ -13829,7 +13822,7 @@
         <v>8</v>
       </c>
       <c r="E515" s="4" t="str">
-        <f>"register(event,"&amp;A515&amp;","&amp;B515&amp;","&amp;C515&amp;","&amp;D515&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","orange_pie",2200944,16);</v>
       </c>
     </row>
@@ -13847,7 +13840,7 @@
         <v>8</v>
       </c>
       <c r="E516" s="4" t="str">
-        <f>"register(event,"&amp;A516&amp;","&amp;B516&amp;","&amp;C516&amp;","&amp;D516&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","pancakes",2200945,16);</v>
       </c>
     </row>
@@ -13865,7 +13858,7 @@
         <v>8</v>
       </c>
       <c r="E517" s="4" t="str">
-        <f>"register(event,"&amp;A517&amp;","&amp;B517&amp;","&amp;C517&amp;","&amp;D517&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","pavlova",2200946,16);</v>
       </c>
     </row>
@@ -13883,7 +13876,7 @@
         <v>8</v>
       </c>
       <c r="E518" s="4" t="str">
-        <f>"register(event,"&amp;A518&amp;","&amp;B518&amp;","&amp;C518&amp;","&amp;D518&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","peach_pie",2200947,16);</v>
       </c>
     </row>
@@ -13901,7 +13894,7 @@
         <v>8</v>
       </c>
       <c r="E519" s="4" t="str">
-        <f>"register(event,"&amp;A519&amp;","&amp;B519&amp;","&amp;C519&amp;","&amp;D519&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","pear_pie",2200948,16);</v>
       </c>
     </row>
@@ -13919,7 +13912,7 @@
         <v>8</v>
       </c>
       <c r="E520" s="4" t="str">
-        <f>"register(event,"&amp;A520&amp;","&amp;B520&amp;","&amp;C520&amp;","&amp;D520&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","plum_pie",2200949,16);</v>
       </c>
     </row>
@@ -13937,7 +13930,7 @@
         <v>8</v>
       </c>
       <c r="E521" s="4" t="str">
-        <f>"register(event,"&amp;A521&amp;","&amp;B521&amp;","&amp;C521&amp;","&amp;D521&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","pomegranate_pie",2200950,16);</v>
       </c>
     </row>
@@ -13955,7 +13948,7 @@
         <v>8</v>
       </c>
       <c r="E522" s="4" t="str">
-        <f>"register(event,"&amp;A522&amp;","&amp;B522&amp;","&amp;C522&amp;","&amp;D522&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","popcorn",2200951,16);</v>
       </c>
     </row>
@@ -13973,7 +13966,7 @@
         <v>8</v>
       </c>
       <c r="E523" s="4" t="str">
-        <f>"register(event,"&amp;A523&amp;","&amp;B523&amp;","&amp;C523&amp;","&amp;D523&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","popcorn_salty",2200952,16);</v>
       </c>
     </row>
@@ -13991,7 +13984,7 @@
         <v>8</v>
       </c>
       <c r="E524" s="4" t="str">
-        <f>"register(event,"&amp;A524&amp;","&amp;B524&amp;","&amp;C524&amp;","&amp;D524&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","popcorn_sweet",2200953,16);</v>
       </c>
     </row>
@@ -14009,7 +14002,7 @@
         <v>8</v>
       </c>
       <c r="E525" s="4" t="str">
-        <f>"register(event,"&amp;A525&amp;","&amp;B525&amp;","&amp;C525&amp;","&amp;D525&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","potato_salad",2200954,16);</v>
       </c>
     </row>
@@ -14027,7 +14020,7 @@
         <v>8</v>
       </c>
       <c r="E526" s="4" t="str">
-        <f>"register(event,"&amp;A526&amp;","&amp;B526&amp;","&amp;C526&amp;","&amp;D526&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","pumpkin_bread",2200955,16);</v>
       </c>
     </row>
@@ -14045,7 +14038,7 @@
         <v>8</v>
       </c>
       <c r="E527" s="4" t="str">
-        <f>"register(event,"&amp;A527&amp;","&amp;B527&amp;","&amp;C527&amp;","&amp;D527&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","pumpkin_cheesecake",2200956,16);</v>
       </c>
     </row>
@@ -14063,7 +14056,7 @@
         <v>8</v>
       </c>
       <c r="E528" s="4" t="str">
-        <f>"register(event,"&amp;A528&amp;","&amp;B528&amp;","&amp;C528&amp;","&amp;D528&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","pumpkin_muffin",2200957,16);</v>
       </c>
     </row>
@@ -14081,7 +14074,7 @@
         <v>8</v>
       </c>
       <c r="E529" s="4" t="str">
-        <f>"register(event,"&amp;A529&amp;","&amp;B529&amp;","&amp;C529&amp;","&amp;D529&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","raspberry_jelly_sandwich",2200958,16);</v>
       </c>
     </row>
@@ -14099,7 +14092,7 @@
         <v>8</v>
       </c>
       <c r="E530" s="4" t="str">
-        <f>"register(event,"&amp;A530&amp;","&amp;B530&amp;","&amp;C530&amp;","&amp;D530&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","raspberry_pie",2200959,16);</v>
       </c>
     </row>
@@ -14117,7 +14110,7 @@
         <v>8</v>
       </c>
       <c r="E531" s="4" t="str">
-        <f>"register(event,"&amp;A531&amp;","&amp;B531&amp;","&amp;C531&amp;","&amp;D531&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","sandwich",2200960,16);</v>
       </c>
     </row>
@@ -14135,7 +14128,7 @@
         <v>8</v>
       </c>
       <c r="E532" s="4" t="str">
-        <f>"register(event,"&amp;A532&amp;","&amp;B532&amp;","&amp;C532&amp;","&amp;D532&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","shepards_pie",2200961,16);</v>
       </c>
     </row>
@@ -14153,7 +14146,7 @@
         <v>8</v>
       </c>
       <c r="E533" s="4" t="str">
-        <f>"register(event,"&amp;A533&amp;","&amp;B533&amp;","&amp;C533&amp;","&amp;D533&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","strawberry_jelly_sandwich",2200962,16);</v>
       </c>
     </row>
@@ -14171,7 +14164,7 @@
         <v>8</v>
       </c>
       <c r="E534" s="4" t="str">
-        <f>"register(event,"&amp;A534&amp;","&amp;B534&amp;","&amp;C534&amp;","&amp;D534&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","strawberry_pie",2200963,16);</v>
       </c>
     </row>
@@ -14189,7 +14182,7 @@
         <v>8</v>
       </c>
       <c r="E535" s="4" t="str">
-        <f>"register(event,"&amp;A535&amp;","&amp;B535&amp;","&amp;C535&amp;","&amp;D535&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","strawberry_salad",2200964,16);</v>
       </c>
     </row>
@@ -14207,7 +14200,7 @@
         <v>8</v>
       </c>
       <c r="E536" s="4" t="str">
-        <f>"register(event,"&amp;A536&amp;","&amp;B536&amp;","&amp;C536&amp;","&amp;D536&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","sweet_berry_pancakes",2200965,16);</v>
       </c>
     </row>
@@ -14225,7 +14218,7 @@
         <v>8</v>
       </c>
       <c r="E537" s="4" t="str">
-        <f>"register(event,"&amp;A537&amp;","&amp;B537&amp;","&amp;C537&amp;","&amp;D537&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","sweetened_pear_cheesecake",2200966,16);</v>
       </c>
     </row>
@@ -14243,7 +14236,7 @@
         <v>8</v>
       </c>
       <c r="E538" s="4" t="str">
-        <f>"register(event,"&amp;A538&amp;","&amp;B538&amp;","&amp;C538&amp;","&amp;D538&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","taco",2200967,16);</v>
       </c>
     </row>
@@ -14261,7 +14254,7 @@
         <v>8</v>
       </c>
       <c r="E539" s="4" t="str">
-        <f>"register(event,"&amp;A539&amp;","&amp;B539&amp;","&amp;C539&amp;","&amp;D539&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","tiramisu",2200968,16);</v>
       </c>
     </row>
@@ -14279,7 +14272,7 @@
         <v>8</v>
       </c>
       <c r="E540" s="4" t="str">
-        <f>"register(event,"&amp;A540&amp;","&amp;B540&amp;","&amp;C540&amp;","&amp;D540&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","tiramisu_with_blackberries",2200969,16);</v>
       </c>
     </row>
@@ -14297,7 +14290,7 @@
         <v>8</v>
       </c>
       <c r="E541" s="4" t="str">
-        <f>"register(event,"&amp;A541&amp;","&amp;B541&amp;","&amp;C541&amp;","&amp;D541&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","tiramisu_with_raspberries",2200970,16);</v>
       </c>
     </row>
@@ -14315,7 +14308,7 @@
         <v>8</v>
       </c>
       <c r="E542" s="4" t="str">
-        <f>"register(event,"&amp;A542&amp;","&amp;B542&amp;","&amp;C542&amp;","&amp;D542&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","tiramisu_with_strawberries",2200971,16);</v>
       </c>
     </row>
@@ -14333,7 +14326,7 @@
         <v>8</v>
       </c>
       <c r="E543" s="4" t="str">
-        <f>"register(event,"&amp;A543&amp;","&amp;B543&amp;","&amp;C543&amp;","&amp;D543&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","tomato_soup",2200972,16);</v>
       </c>
     </row>
@@ -14351,7 +14344,7 @@
         <v>8</v>
       </c>
       <c r="E544" s="4" t="str">
-        <f>"register(event,"&amp;A544&amp;","&amp;B544&amp;","&amp;C544&amp;","&amp;D544&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","waffles",2200973,16);</v>
       </c>
     </row>
@@ -14369,7 +14362,7 @@
         <v>8</v>
       </c>
       <c r="E545" s="4" t="str">
-        <f>"register(event,"&amp;A545&amp;","&amp;B545&amp;","&amp;C545&amp;","&amp;D545&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","elderberry_jelly_sandwich",2201282,16);</v>
       </c>
     </row>
@@ -14387,7 +14380,7 @@
         <v>8</v>
       </c>
       <c r="E546" s="4" t="str">
-        <f>"register(event,"&amp;A546&amp;","&amp;B546&amp;","&amp;C546&amp;","&amp;D546&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","street_taco",2201283,16);</v>
       </c>
     </row>
@@ -14405,7 +14398,7 @@
         <v>8</v>
       </c>
       <c r="E547" s="4" t="str">
-        <f>"register(event,"&amp;A547&amp;","&amp;B547&amp;","&amp;C547&amp;","&amp;D547&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","sweet_potato_pie",2201284,16);</v>
       </c>
     </row>
@@ -14423,7 +14416,7 @@
         <v>8</v>
       </c>
       <c r="E548" s="4" t="str">
-        <f>"register(event,"&amp;A548&amp;","&amp;B548&amp;","&amp;C548&amp;","&amp;D548&amp;");"</f>
+        <f t="shared" si="8"/>
         <v>register(event,"player_head","stuffed_red_bell_pepper",2201285,16);</v>
       </c>
     </row>
